--- a/informeMarzo2023.xlsx
+++ b/informeMarzo2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\COORD_INGLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3EBDEA-3639-4A30-B7C0-86A2D6055B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAFB19F-03E1-474A-8835-BF354FC416BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,89 @@
     <author>Manuel</author>
   </authors>
   <commentList>
-    <comment ref="N44" authorId="0" shapeId="0" xr:uid="{5DB901F4-A26A-4A9C-AB65-A241B8745622}">
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{01272A28-2900-4C43-8616-C54230E68166}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+FUI ASIGNADO PARA TOMAR PRUEBA DE UBICACIÓN LOS DIAS MARTES Y MIERCOLES.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F21" authorId="0" shapeId="0" xr:uid="{86A47F0A-B52B-45CC-B45E-CD8FC09AFFD2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+FUI ASIGNADO PARA TOMAR PRUEBA DE UBICACIÓN LOS DIAS MARTES Y MIERCOLES.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{93459D2E-B5C8-4FC2-946C-CAAD63455794}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+FUI ASIGNADO PARA TOMAR PRUEBA DE UBICACIÓN LOS DIAS MARTES Y MIERCOLES.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Manuel</author>
+  </authors>
+  <commentList>
+    <comment ref="O44" authorId="0" shapeId="0" xr:uid="{ED06CD91-05B1-499F-B61F-5AE507BE3D36}">
       <text>
         <r>
           <rPr>
@@ -75,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N49" authorId="0" shapeId="0" xr:uid="{4B97ED7A-0A06-460E-B0D2-9495D1DA67BE}">
+    <comment ref="O49" authorId="0" shapeId="0" xr:uid="{582C6773-5DEF-48B4-8BCC-BC09F422E350}">
       <text>
         <r>
           <rPr>
@@ -99,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N54" authorId="0" shapeId="0" xr:uid="{FFCA2ACF-1505-4494-BF7A-74E08A7B54D3}">
+    <comment ref="O54" authorId="0" shapeId="0" xr:uid="{5B8CD125-524D-4506-B3D2-3F6EEAC081D5}">
       <text>
         <r>
           <rPr>
@@ -123,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N59" authorId="0" shapeId="0" xr:uid="{8658CF8F-84DA-404C-AFA9-C9E43F47266E}">
+    <comment ref="O59" authorId="0" shapeId="0" xr:uid="{024E6FC0-3DE6-48CF-81A1-B6B06D747F12}">
       <text>
         <r>
           <rPr>
@@ -147,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N64" authorId="0" shapeId="0" xr:uid="{C1F08897-5E0A-4ED0-9C56-2DF92F2BE8CD}">
+    <comment ref="O64" authorId="0" shapeId="0" xr:uid="{09D51896-CE0F-48C6-BEB7-3C93CCCFCF2E}">
       <text>
         <r>
           <rPr>
@@ -171,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N69" authorId="0" shapeId="0" xr:uid="{6361E6A1-A44E-4AB4-B976-B151B03FAB2D}">
+    <comment ref="O69" authorId="0" shapeId="0" xr:uid="{49C6BEF5-B9A1-47B2-943C-7041F4E0989E}">
       <text>
         <r>
           <rPr>
@@ -195,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N74" authorId="0" shapeId="0" xr:uid="{672A70D6-7E1A-405B-8939-3FFF0B346D0E}">
+    <comment ref="O74" authorId="0" shapeId="0" xr:uid="{B9D49C36-A7F1-4B00-8A96-0E5A23B02FE1}">
       <text>
         <r>
           <rPr>
@@ -224,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="107">
   <si>
     <t>FACULTAD</t>
   </si>
@@ -624,16 +706,29 @@
       <t xml:space="preserve"> 2023</t>
     </r>
   </si>
+  <si>
+    <t>Ex.Final</t>
+  </si>
+  <si>
+    <t>Ex.Sup.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -907,12 +1002,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -920,156 +1015,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1078,56 +1173,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1135,26 +1224,38 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1525,8 +1626,8 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="5" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1548,11 +1649,11 @@
       <c r="J3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="71">
+      <c r="K3" s="74">
         <f ca="1">NOW()</f>
-        <v>44989.734517939818</v>
-      </c>
-      <c r="L3" s="72"/>
+        <v>45006.492720254631</v>
+      </c>
+      <c r="L3" s="75"/>
     </row>
     <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="27"/>
@@ -1796,8 +1897,12 @@
       <c r="D13" s="18">
         <v>1</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="E13" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="17">
+        <v>1</v>
+      </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -1819,8 +1924,12 @@
       <c r="D14" s="18">
         <v>1</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="E14" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="17">
+        <v>1</v>
+      </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -1842,8 +1951,12 @@
       <c r="D15" s="18">
         <v>1</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="17">
+        <v>1</v>
+      </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -1865,8 +1978,12 @@
       <c r="D16" s="18">
         <v>1</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+      <c r="E16" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="17">
+        <v>1</v>
+      </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -1888,8 +2005,12 @@
       <c r="D17" s="18">
         <v>1</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="E17" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="17">
+        <v>1</v>
+      </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
@@ -1911,8 +2032,12 @@
       <c r="D18" s="18">
         <v>1</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="E18" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="17">
+        <v>1</v>
+      </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -1934,8 +2059,12 @@
       <c r="D19" s="18">
         <v>1</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="E19" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="17">
+        <v>1</v>
+      </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -1957,8 +2086,12 @@
       <c r="D20" s="36">
         <v>1</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="E20" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
@@ -1980,8 +2113,12 @@
       <c r="D21" s="36">
         <v>1</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="E21" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="16">
+        <v>1</v>
+      </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
@@ -2003,8 +2140,12 @@
       <c r="D22" s="36">
         <v>1</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="E22" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="16">
+        <v>1</v>
+      </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
@@ -2026,8 +2167,12 @@
       <c r="D23" s="36">
         <v>1</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="E23" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1</v>
+      </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
@@ -2440,8 +2585,8 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" activeCellId="2" sqref="E22 E25 E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2464,11 +2609,11 @@
       <c r="J3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="71">
+      <c r="K3" s="74">
         <f ca="1">NOW()</f>
-        <v>44989.734517939818</v>
-      </c>
-      <c r="L3" s="72"/>
+        <v>45006.492720254631</v>
+      </c>
+      <c r="L3" s="75"/>
     </row>
     <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="27"/>
@@ -2726,8 +2871,12 @@
       <c r="D13" s="25">
         <v>1</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
+      <c r="E13" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="24">
+        <v>1</v>
+      </c>
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -2749,8 +2898,12 @@
       <c r="D14" s="25">
         <v>1</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
+      <c r="E14" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="24">
+        <v>1</v>
+      </c>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
@@ -2772,8 +2925,12 @@
       <c r="D15" s="25">
         <v>1</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="E15" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="24">
+        <v>1</v>
+      </c>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -2795,8 +2952,12 @@
       <c r="D16" s="25">
         <v>1</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
+      <c r="E16" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="24">
+        <v>1</v>
+      </c>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
@@ -2818,8 +2979,12 @@
       <c r="D17" s="25">
         <v>1</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
+      <c r="E17" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="24">
+        <v>1</v>
+      </c>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -2841,8 +3006,12 @@
       <c r="D18" s="25">
         <v>1</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="E18" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="24">
+        <v>1</v>
+      </c>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -2864,8 +3033,12 @@
       <c r="D19" s="25">
         <v>1</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
+      <c r="E19" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="24">
+        <v>1</v>
+      </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
@@ -2933,8 +3106,12 @@
       <c r="D22" s="36">
         <v>1</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="E22" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="16">
+        <v>1</v>
+      </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
@@ -3002,8 +3179,12 @@
       <c r="D25" s="36">
         <v>1</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="E25" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="16">
+        <v>1</v>
+      </c>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
@@ -3025,8 +3206,12 @@
       <c r="D26" s="36">
         <v>1</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="E26" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="16">
+        <v>1</v>
+      </c>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -3370,8 +3555,8 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" activeCellId="4" sqref="E20 E21 E24 E25 E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3394,11 +3579,11 @@
       <c r="J3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="71">
+      <c r="K3" s="74">
         <f ca="1">NOW()</f>
-        <v>44989.734517939818</v>
-      </c>
-      <c r="L3" s="72"/>
+        <v>45006.492720254631</v>
+      </c>
+      <c r="L3" s="75"/>
     </row>
     <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="27"/>
@@ -3656,8 +3841,12 @@
       <c r="D13" s="41">
         <v>1</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
+      <c r="E13" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="40">
+        <v>1</v>
+      </c>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
@@ -3679,8 +3868,12 @@
       <c r="D14" s="41">
         <v>1</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="E14" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="40">
+        <v>1</v>
+      </c>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
@@ -3702,8 +3895,12 @@
       <c r="D15" s="41">
         <v>1</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="E15" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="40">
+        <v>1</v>
+      </c>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
@@ -3725,8 +3922,12 @@
       <c r="D16" s="41">
         <v>1</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
+      <c r="E16" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="40">
+        <v>1</v>
+      </c>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
@@ -3748,8 +3949,12 @@
       <c r="D17" s="41">
         <v>1</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
+      <c r="E17" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="40">
+        <v>1</v>
+      </c>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
       <c r="I17" s="40"/>
@@ -3771,8 +3976,12 @@
       <c r="D18" s="41">
         <v>1</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
+      <c r="E18" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="40">
+        <v>1</v>
+      </c>
       <c r="G18" s="40"/>
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
@@ -3794,8 +4003,12 @@
       <c r="D19" s="41">
         <v>1</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
+      <c r="E19" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="40">
+        <v>1</v>
+      </c>
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
       <c r="I19" s="40"/>
@@ -3817,8 +4030,12 @@
       <c r="D20" s="36">
         <v>1</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="E20" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
@@ -3840,8 +4057,12 @@
       <c r="D21" s="36">
         <v>1</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="E21" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="16">
+        <v>1</v>
+      </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
@@ -3909,8 +4130,12 @@
       <c r="D24" s="36">
         <v>1</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="E24" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="16">
+        <v>1</v>
+      </c>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
@@ -3932,8 +4157,12 @@
       <c r="D25" s="36">
         <v>1</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="E25" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="16">
+        <v>1</v>
+      </c>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
@@ -3955,8 +4184,12 @@
       <c r="D26" s="36">
         <v>1</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="E26" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="16">
+        <v>1</v>
+      </c>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -4296,12 +4529,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3C2417-2AB0-432E-AB08-B8A89ADD7E83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3C2417-2AB0-432E-AB08-B8A89ADD7E83}">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <pane ySplit="5" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4324,11 +4557,11 @@
       <c r="J3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="71">
+      <c r="K3" s="74">
         <f ca="1">NOW()</f>
-        <v>44989.734517939818</v>
-      </c>
-      <c r="L3" s="72"/>
+        <v>45006.492720254631</v>
+      </c>
+      <c r="L3" s="75"/>
     </row>
     <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="27"/>
@@ -4545,8 +4778,12 @@
       <c r="D12" s="43">
         <v>1</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="44"/>
+      <c r="E12" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="44">
+        <v>1</v>
+      </c>
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
       <c r="I12" s="44"/>
@@ -4568,8 +4805,12 @@
       <c r="D13" s="43">
         <v>1</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="44"/>
+      <c r="E13" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="44">
+        <v>1</v>
+      </c>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
       <c r="I13" s="44"/>
@@ -4591,8 +4832,12 @@
       <c r="D14" s="43">
         <v>1</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="44"/>
+      <c r="E14" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="44">
+        <v>1</v>
+      </c>
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
       <c r="I14" s="44"/>
@@ -4614,8 +4859,12 @@
       <c r="D15" s="43">
         <v>1</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="44">
+        <v>1</v>
+      </c>
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
       <c r="I15" s="44"/>
@@ -4637,8 +4886,12 @@
       <c r="D16" s="43">
         <v>1</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="44"/>
+      <c r="E16" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="44">
+        <v>1</v>
+      </c>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
       <c r="I16" s="44"/>
@@ -4660,8 +4913,12 @@
       <c r="D17" s="43">
         <v>1</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="44"/>
+      <c r="E17" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="44">
+        <v>1</v>
+      </c>
       <c r="G17" s="42"/>
       <c r="H17" s="42"/>
       <c r="I17" s="44"/>
@@ -4683,8 +4940,12 @@
       <c r="D18" s="36">
         <v>1</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="38"/>
+      <c r="E18" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="38">
+        <v>1</v>
+      </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="38"/>
@@ -4707,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="16"/>
-      <c r="F19" s="38"/>
+      <c r="F19" s="71"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="38"/>
@@ -4729,8 +4990,12 @@
       <c r="D20" s="36">
         <v>1</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="38"/>
+      <c r="E20" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="38">
+        <v>1</v>
+      </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="38"/>
@@ -4753,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="16"/>
-      <c r="F21" s="38"/>
+      <c r="F21" s="71"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="38"/>
@@ -4776,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="16"/>
-      <c r="F22" s="38"/>
+      <c r="F22" s="71"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="38"/>
@@ -4798,8 +5063,12 @@
       <c r="D23" s="36">
         <v>1</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="38"/>
+      <c r="E23" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="38">
+        <v>1</v>
+      </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="38"/>
@@ -5089,6 +5358,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5097,8 +5367,8 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5122,11 +5392,11 @@
       <c r="J3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="71">
+      <c r="K3" s="74">
         <f ca="1">NOW()</f>
-        <v>44989.734517939818</v>
-      </c>
-      <c r="L3" s="72"/>
+        <v>45006.492720254631</v>
+      </c>
+      <c r="L3" s="75"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="54"/>
@@ -5391,8 +5661,12 @@
       <c r="D13" s="64">
         <v>1</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
+      <c r="E13" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="63">
+        <v>1</v>
+      </c>
       <c r="G13" s="63"/>
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
@@ -5414,8 +5688,12 @@
       <c r="D14" s="64">
         <v>1</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
+      <c r="E14" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="63">
+        <v>1</v>
+      </c>
       <c r="G14" s="63"/>
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
@@ -5437,8 +5715,12 @@
       <c r="D15" s="64">
         <v>1</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
+      <c r="E15" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="63">
+        <v>1</v>
+      </c>
       <c r="G15" s="63"/>
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
@@ -5460,8 +5742,12 @@
       <c r="D16" s="64">
         <v>1</v>
       </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
+      <c r="E16" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="63">
+        <v>1</v>
+      </c>
       <c r="G16" s="63"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -5483,8 +5769,12 @@
       <c r="D17" s="64">
         <v>1</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
+      <c r="E17" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="63">
+        <v>1</v>
+      </c>
       <c r="G17" s="63"/>
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
@@ -5506,8 +5796,12 @@
       <c r="D18" s="64">
         <v>1</v>
       </c>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
+      <c r="E18" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="63">
+        <v>1</v>
+      </c>
       <c r="G18" s="63"/>
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
@@ -5529,8 +5823,12 @@
       <c r="D19" s="64">
         <v>1</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
+      <c r="E19" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="63">
+        <v>1</v>
+      </c>
       <c r="G19" s="63"/>
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
@@ -5690,8 +5988,12 @@
       <c r="D26" s="62">
         <v>1</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
+      <c r="E26" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="59">
+        <v>1</v>
+      </c>
       <c r="G26" s="59"/>
       <c r="H26" s="59"/>
       <c r="I26" s="59"/>
@@ -6037,8 +6339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:T213"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Q83" sqref="Q83"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6132,37 +6434,37 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="89">
-        <v>1</v>
-      </c>
-      <c r="G9" s="91" t="s">
+      <c r="F9" s="92">
+        <v>1</v>
+      </c>
+      <c r="G9" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="91" t="s">
+      <c r="H9" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="91" t="s">
+      <c r="I9" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="91" t="s">
+      <c r="J9" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="91" t="s">
+      <c r="K9" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="73" t="s">
+      <c r="L9" s="76" t="s">
         <v>39</v>
       </c>
       <c r="M9" s="5">
@@ -6183,27 +6485,27 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="74"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="77"/>
       <c r="M10" s="12">
         <v>2</v>
       </c>
       <c r="N10" s="12" t="str">
         <f>IF(QUISHPE!E13="","",QUISHPE!E13)</f>
-        <v/>
-      </c>
-      <c r="O10" s="70" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O10" s="70">
         <f>IF(N10="","",QUISHPE!F13)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -6212,27 +6514,27 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="74"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="77"/>
       <c r="M11" s="12">
         <v>3</v>
       </c>
       <c r="N11" s="12" t="str">
         <f>IF(QUISHPE!E20="","",QUISHPE!E20)</f>
-        <v/>
-      </c>
-      <c r="O11" s="67" t="str">
+        <v>Ex.Sup.</v>
+      </c>
+      <c r="O11" s="67">
         <f>IF(N11="","",QUISHPE!F20)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -6241,17 +6543,17 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="74"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="77"/>
       <c r="M12" s="12">
         <v>4</v>
       </c>
@@ -6270,17 +6572,17 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="74"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="77"/>
       <c r="M13" s="12">
         <v>5</v>
       </c>
@@ -6289,8 +6591,8 @@
         <v/>
       </c>
       <c r="O13" s="67" t="str">
-        <f>IF(N13="","Día de mes siguiente",QUISHPE!F34)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N13="","",QUISHPE!F34)</f>
+        <v/>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -6299,17 +6601,17 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="75" t="s">
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="78" t="s">
         <v>40</v>
       </c>
       <c r="M14" s="46">
@@ -6330,27 +6632,27 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="76"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="79"/>
       <c r="M15" s="19">
         <v>2</v>
       </c>
       <c r="N15" s="19" t="str">
         <f>IF(QUISHPE!E14="","",QUISHPE!E14)</f>
-        <v/>
-      </c>
-      <c r="O15" s="68" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O15" s="68">
         <f>IF(N15="","",QUISHPE!F14)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -6359,27 +6661,27 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="76"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="79"/>
       <c r="M16" s="19">
         <v>3</v>
       </c>
       <c r="N16" s="19" t="str">
         <f>IF(QUISHPE!E21="","",QUISHPE!E21)</f>
-        <v/>
-      </c>
-      <c r="O16" s="68" t="str">
+        <v>Ex.Sup.</v>
+      </c>
+      <c r="O16" s="68">
         <f>IF(N16="","",QUISHPE!F21)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -6388,17 +6690,17 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="76"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="79"/>
       <c r="M17" s="19">
         <v>4</v>
       </c>
@@ -6417,17 +6719,17 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="76"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="79"/>
       <c r="M18" s="19">
         <v>5</v>
       </c>
@@ -6436,8 +6738,8 @@
         <v/>
       </c>
       <c r="O18" s="68" t="str">
-        <f>IF(N18="","Día de mes siguiente",QUISHPE!F35)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N18="","",QUISHPE!F35)</f>
+        <v/>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -6446,17 +6748,17 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="73" t="s">
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="76" t="s">
         <v>41</v>
       </c>
       <c r="M19" s="5">
@@ -6477,27 +6779,27 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="74"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="77"/>
       <c r="M20" s="12">
         <v>2</v>
       </c>
       <c r="N20" s="19" t="str">
         <f>IF(QUISHPE!E15="","",QUISHPE!E15)</f>
-        <v/>
-      </c>
-      <c r="O20" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O20" s="66">
         <f>IF(N20="","",QUISHPE!F15)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -6506,27 +6808,27 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="74"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="77"/>
       <c r="M21" s="12">
         <v>3</v>
       </c>
       <c r="N21" s="19" t="str">
         <f>IF(QUISHPE!E22="","",QUISHPE!E22)</f>
-        <v/>
-      </c>
-      <c r="O21" s="65" t="str">
+        <v>Ex.Sup.</v>
+      </c>
+      <c r="O21" s="65">
         <f>IF(N21="","",QUISHPE!F22)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -6535,17 +6837,17 @@
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="74"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="77"/>
       <c r="M22" s="12">
         <v>4</v>
       </c>
@@ -6564,17 +6866,17 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="74"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="77"/>
       <c r="M23" s="12">
         <v>5</v>
       </c>
@@ -6583,8 +6885,8 @@
         <v/>
       </c>
       <c r="O23" s="65" t="str">
-        <f>IF(N23="","Día de mes siguiente",QUISHPE!F36)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N23="","",QUISHPE!F36)</f>
+        <v/>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -6593,17 +6895,17 @@
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="73" t="s">
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="76" t="s">
         <v>42</v>
       </c>
       <c r="M24" s="5">
@@ -6624,27 +6926,27 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="74"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="77"/>
       <c r="M25" s="12">
         <v>2</v>
       </c>
       <c r="N25" s="19" t="str">
         <f>IF(QUISHPE!E16="","",QUISHPE!E16)</f>
-        <v/>
-      </c>
-      <c r="O25" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O25" s="66">
         <f>IF(N25="","",QUISHPE!F16)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -6653,27 +6955,27 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="74"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="77"/>
       <c r="M26" s="12">
         <v>3</v>
       </c>
       <c r="N26" s="19" t="str">
         <f>IF(QUISHPE!E23="","",QUISHPE!E23)</f>
-        <v/>
-      </c>
-      <c r="O26" s="65" t="str">
+        <v>Ex.Sup.</v>
+      </c>
+      <c r="O26" s="65">
         <f>IF(N26="","",QUISHPE!F23)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -6682,17 +6984,17 @@
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="74"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="77"/>
       <c r="M27" s="12">
         <v>4</v>
       </c>
@@ -6711,17 +7013,17 @@
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="74"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="77"/>
       <c r="M28" s="12">
         <v>5</v>
       </c>
@@ -6730,8 +7032,8 @@
         <v/>
       </c>
       <c r="O28" s="65" t="str">
-        <f>IF(N28="","Día de mes siguiente",QUISHPE!F37)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N28="","",QUISHPE!F37)</f>
+        <v/>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -6740,17 +7042,17 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="73" t="s">
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="76" t="s">
         <v>43</v>
       </c>
       <c r="M29" s="5">
@@ -6771,27 +7073,27 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="74"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="77"/>
       <c r="M30" s="12">
         <v>2</v>
       </c>
       <c r="N30" s="19" t="str">
         <f>IF(QUISHPE!E17="","",QUISHPE!E17)</f>
-        <v/>
-      </c>
-      <c r="O30" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O30" s="66">
         <f>IF(N30="","",QUISHPE!F17)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -6800,17 +7102,17 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="74"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="77"/>
       <c r="M31" s="12">
         <v>3</v>
       </c>
@@ -6829,17 +7131,17 @@
       <c r="T31" s="1"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="74"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="77"/>
       <c r="M32" s="12">
         <v>4</v>
       </c>
@@ -6858,17 +7160,17 @@
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="74"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="77"/>
       <c r="M33" s="12">
         <v>5</v>
       </c>
@@ -6877,8 +7179,8 @@
         <v/>
       </c>
       <c r="O33" s="65" t="str">
-        <f>IF(N33="","Día de mes siguiente",QUISHPE!F38)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N33="","",QUISHPE!F38)</f>
+        <v/>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -6887,17 +7189,17 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="73" t="s">
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="76" t="s">
         <v>44</v>
       </c>
       <c r="M34" s="5">
@@ -6918,27 +7220,27 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="74"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="77"/>
       <c r="M35" s="12">
         <v>2</v>
       </c>
       <c r="N35" s="19" t="str">
         <f>IF(QUISHPE!E18="","",QUISHPE!E18)</f>
-        <v/>
-      </c>
-      <c r="O35" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O35" s="66">
         <f>IF(N35="","",QUISHPE!F18)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -6947,17 +7249,17 @@
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="74"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="77"/>
       <c r="M36" s="12">
         <v>3</v>
       </c>
@@ -6976,17 +7278,17 @@
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="74"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="77"/>
       <c r="M37" s="12">
         <v>4</v>
       </c>
@@ -7005,17 +7307,17 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="88"/>
-      <c r="L38" s="74"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="77"/>
       <c r="M38" s="12">
         <v>5</v>
       </c>
@@ -7024,8 +7326,8 @@
         <v/>
       </c>
       <c r="O38" s="65" t="str">
-        <f>IF(N38="","Día de mes siguiente",QUISHPE!F39)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N38="","",QUISHPE!F39)</f>
+        <v/>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -7034,17 +7336,17 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="73" t="s">
+      <c r="B39" s="89"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="76" t="s">
         <v>45</v>
       </c>
       <c r="M39" s="5">
@@ -7065,27 +7367,27 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="74"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="91"/>
+      <c r="L40" s="77"/>
       <c r="M40" s="12">
         <v>2</v>
       </c>
       <c r="N40" s="19" t="str">
         <f>IF(QUISHPE!E19="","",QUISHPE!E19)</f>
-        <v/>
-      </c>
-      <c r="O40" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O40" s="66">
         <f>IF(N40="","",QUISHPE!F19)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -7094,17 +7396,17 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="74"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="91"/>
+      <c r="K41" s="91"/>
+      <c r="L41" s="77"/>
       <c r="M41" s="12">
         <v>3</v>
       </c>
@@ -7123,17 +7425,17 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="74"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="91"/>
+      <c r="L42" s="77"/>
       <c r="M42" s="12">
         <v>4</v>
       </c>
@@ -7152,17 +7454,17 @@
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="74"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="91"/>
+      <c r="H43" s="91"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="91"/>
+      <c r="K43" s="91"/>
+      <c r="L43" s="77"/>
       <c r="M43" s="12">
         <v>5</v>
       </c>
@@ -7171,8 +7473,8 @@
         <v/>
       </c>
       <c r="O43" s="65" t="str">
-        <f>IF(N43="","Día de mes siguiente",QUISHPE!F40)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N43="","",QUISHPE!F40)</f>
+        <v/>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -7181,44 +7483,44 @@
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="80" t="s">
+      <c r="B44" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="80" t="s">
+      <c r="C44" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="77" t="s">
+      <c r="D44" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="77" t="str">
+      <c r="E44" s="80" t="str">
         <f>E9</f>
         <v>MARZO</v>
       </c>
-      <c r="F44" s="89">
-        <v>1</v>
-      </c>
-      <c r="G44" s="91" t="s">
+      <c r="F44" s="92">
+        <v>1</v>
+      </c>
+      <c r="G44" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="91" t="s">
+      <c r="H44" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="91" t="s">
+      <c r="I44" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="J44" s="91" t="s">
+      <c r="J44" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="K44" s="91" t="s">
+      <c r="K44" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="L44" s="73" t="s">
+      <c r="L44" s="76" t="s">
         <v>46</v>
       </c>
       <c r="M44" s="5">
         <v>1</v>
       </c>
-      <c r="N44" s="94">
+      <c r="N44" s="19">
         <f>IF(RIVAS!E6="","",RIVAS!E6)</f>
         <v>2</v>
       </c>
@@ -7228,45 +7530,45 @@
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="74"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="91"/>
+      <c r="I45" s="91"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="91"/>
+      <c r="L45" s="77"/>
       <c r="M45" s="12">
         <v>2</v>
       </c>
-      <c r="N45" s="12" t="str">
+      <c r="N45" s="19" t="str">
         <f>IF(RIVAS!E13="","",RIVAS!E13)</f>
-        <v/>
-      </c>
-      <c r="O45" s="70" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O45" s="70">
         <f>IF(N45="","",RIVAS!F13)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="74"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="91"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="91"/>
+      <c r="L46" s="77"/>
       <c r="M46" s="12">
         <v>3</v>
       </c>
-      <c r="N46" s="12" t="str">
+      <c r="N46" s="19" t="str">
         <f>IF(RIVAS!E20="","",RIVAS!E20)</f>
         <v/>
       </c>
@@ -7276,21 +7578,21 @@
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B47" s="86"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="74"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="91"/>
+      <c r="I47" s="91"/>
+      <c r="J47" s="91"/>
+      <c r="K47" s="91"/>
+      <c r="L47" s="77"/>
       <c r="M47" s="12">
         <v>4</v>
       </c>
-      <c r="N47" s="12" t="str">
+      <c r="N47" s="19" t="str">
         <f>IF(RIVAS!E27="","",RIVAS!E27)</f>
         <v/>
       </c>
@@ -7300,47 +7602,47 @@
       </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="86"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="88"/>
-      <c r="L48" s="74"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="91"/>
+      <c r="H48" s="91"/>
+      <c r="I48" s="91"/>
+      <c r="J48" s="91"/>
+      <c r="K48" s="91"/>
+      <c r="L48" s="77"/>
       <c r="M48" s="12">
         <v>5</v>
       </c>
-      <c r="N48" s="12" t="str">
+      <c r="N48" s="19" t="str">
         <f>IF(RIVAS!E34="","",RIVAS!E34)</f>
         <v/>
       </c>
       <c r="O48" s="67" t="str">
-        <f>IF(N48="","Día de mes siguiente",RIVAS!F34)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N48="","",RIVAS!F34)</f>
+        <v/>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="88"/>
-      <c r="L49" s="75" t="s">
+      <c r="B49" s="89"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="91"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="91"/>
+      <c r="J49" s="91"/>
+      <c r="K49" s="91"/>
+      <c r="L49" s="78" t="s">
         <v>47</v>
       </c>
       <c r="M49" s="46">
         <v>1</v>
       </c>
-      <c r="N49" s="94">
+      <c r="N49" s="19">
         <f>IF(RIVAS!E7="","",RIVAS!E7)</f>
         <v>2</v>
       </c>
@@ -7350,41 +7652,41 @@
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="86"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="76"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="91"/>
+      <c r="J50" s="91"/>
+      <c r="K50" s="91"/>
+      <c r="L50" s="79"/>
       <c r="M50" s="19">
         <v>2</v>
       </c>
       <c r="N50" s="19" t="str">
         <f>IF(RIVAS!E14="","",RIVAS!E14)</f>
-        <v/>
-      </c>
-      <c r="O50" s="68" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O50" s="68">
         <f>IF(N50="","",RIVAS!F14)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="86"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="88"/>
-      <c r="L51" s="76"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="91"/>
+      <c r="L51" s="79"/>
       <c r="M51" s="19">
         <v>3</v>
       </c>
@@ -7398,17 +7700,17 @@
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="88"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="88"/>
-      <c r="K52" s="88"/>
-      <c r="L52" s="76"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="91"/>
+      <c r="H52" s="91"/>
+      <c r="I52" s="91"/>
+      <c r="J52" s="91"/>
+      <c r="K52" s="91"/>
+      <c r="L52" s="79"/>
       <c r="M52" s="19">
         <v>4</v>
       </c>
@@ -7422,17 +7724,17 @@
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B53" s="86"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="88"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="88"/>
-      <c r="K53" s="88"/>
-      <c r="L53" s="76"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="91"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="91"/>
+      <c r="I53" s="91"/>
+      <c r="J53" s="91"/>
+      <c r="K53" s="91"/>
+      <c r="L53" s="79"/>
       <c r="M53" s="19">
         <v>5</v>
       </c>
@@ -7441,28 +7743,28 @@
         <v/>
       </c>
       <c r="O53" s="68" t="str">
-        <f>IF(N53="","Día de mes siguiente",RIVAS!F35)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N53="","",RIVAS!F35)</f>
+        <v/>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B54" s="86"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="88"/>
-      <c r="L54" s="73" t="s">
+      <c r="B54" s="89"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="93"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="91"/>
+      <c r="L54" s="76" t="s">
         <v>48</v>
       </c>
       <c r="M54" s="5">
         <v>1</v>
       </c>
-      <c r="N54" s="94">
+      <c r="N54" s="19">
         <f>IF(RIVAS!E8="","",RIVAS!E8)</f>
         <v>2</v>
       </c>
@@ -7472,65 +7774,65 @@
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
-      <c r="K55" s="88"/>
-      <c r="L55" s="74"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="91"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="91"/>
+      <c r="H55" s="91"/>
+      <c r="I55" s="91"/>
+      <c r="J55" s="91"/>
+      <c r="K55" s="91"/>
+      <c r="L55" s="77"/>
       <c r="M55" s="12">
         <v>2</v>
       </c>
       <c r="N55" s="19" t="str">
         <f>IF(RIVAS!E15="","",RIVAS!E15)</f>
-        <v/>
-      </c>
-      <c r="O55" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O55" s="66">
         <f>IF(N55="","",RIVAS!F15)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="86"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="88"/>
-      <c r="H56" s="88"/>
-      <c r="I56" s="88"/>
-      <c r="J56" s="88"/>
-      <c r="K56" s="88"/>
-      <c r="L56" s="74"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="91"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="91"/>
+      <c r="H56" s="91"/>
+      <c r="I56" s="91"/>
+      <c r="J56" s="91"/>
+      <c r="K56" s="91"/>
+      <c r="L56" s="77"/>
       <c r="M56" s="12">
         <v>3</v>
       </c>
       <c r="N56" s="19" t="str">
         <f>IF(RIVAS!E22="","",RIVAS!E22)</f>
-        <v/>
-      </c>
-      <c r="O56" s="65" t="str">
+        <v>Ex.Sup.</v>
+      </c>
+      <c r="O56" s="65">
         <f>IF(N56="","",RIVAS!F22)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="86"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="88"/>
-      <c r="I57" s="88"/>
-      <c r="J57" s="88"/>
-      <c r="K57" s="88"/>
-      <c r="L57" s="74"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="91"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="91"/>
+      <c r="H57" s="91"/>
+      <c r="I57" s="91"/>
+      <c r="J57" s="91"/>
+      <c r="K57" s="91"/>
+      <c r="L57" s="77"/>
       <c r="M57" s="12">
         <v>4</v>
       </c>
@@ -7544,17 +7846,17 @@
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B58" s="86"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="88"/>
-      <c r="E58" s="88"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="88"/>
-      <c r="H58" s="88"/>
-      <c r="I58" s="88"/>
-      <c r="J58" s="88"/>
-      <c r="K58" s="88"/>
-      <c r="L58" s="74"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="91"/>
+      <c r="F58" s="93"/>
+      <c r="G58" s="91"/>
+      <c r="H58" s="91"/>
+      <c r="I58" s="91"/>
+      <c r="J58" s="91"/>
+      <c r="K58" s="91"/>
+      <c r="L58" s="77"/>
       <c r="M58" s="12">
         <v>5</v>
       </c>
@@ -7563,28 +7865,28 @@
         <v/>
       </c>
       <c r="O58" s="65" t="str">
-        <f>IF(N58="","Día de mes siguiente",RIVAS!F36)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N58="","",RIVAS!F36)</f>
+        <v/>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" s="86"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="90"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="88"/>
-      <c r="L59" s="73" t="s">
+      <c r="B59" s="89"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="91"/>
+      <c r="J59" s="91"/>
+      <c r="K59" s="91"/>
+      <c r="L59" s="76" t="s">
         <v>49</v>
       </c>
       <c r="M59" s="5">
         <v>1</v>
       </c>
-      <c r="N59" s="94">
+      <c r="N59" s="19">
         <f>IF(RIVAS!E9="","",RIVAS!E9)</f>
         <v>2</v>
       </c>
@@ -7594,41 +7896,41 @@
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="86"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="90"/>
-      <c r="G60" s="88"/>
-      <c r="H60" s="88"/>
-      <c r="I60" s="88"/>
-      <c r="J60" s="88"/>
-      <c r="K60" s="88"/>
-      <c r="L60" s="74"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="91"/>
+      <c r="F60" s="93"/>
+      <c r="G60" s="91"/>
+      <c r="H60" s="91"/>
+      <c r="I60" s="91"/>
+      <c r="J60" s="91"/>
+      <c r="K60" s="91"/>
+      <c r="L60" s="77"/>
       <c r="M60" s="12">
         <v>2</v>
       </c>
       <c r="N60" s="19" t="str">
         <f>IF(RIVAS!E16="","",RIVAS!E16)</f>
-        <v/>
-      </c>
-      <c r="O60" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O60" s="66">
         <f>IF(N60="","",RIVAS!F16)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="86"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="88"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="88"/>
-      <c r="H61" s="88"/>
-      <c r="I61" s="88"/>
-      <c r="J61" s="88"/>
-      <c r="K61" s="88"/>
-      <c r="L61" s="74"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="91"/>
+      <c r="E61" s="91"/>
+      <c r="F61" s="93"/>
+      <c r="G61" s="91"/>
+      <c r="H61" s="91"/>
+      <c r="I61" s="91"/>
+      <c r="J61" s="91"/>
+      <c r="K61" s="91"/>
+      <c r="L61" s="77"/>
       <c r="M61" s="12">
         <v>3</v>
       </c>
@@ -7642,17 +7944,17 @@
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B62" s="86"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="88"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="88"/>
-      <c r="H62" s="88"/>
-      <c r="I62" s="88"/>
-      <c r="J62" s="88"/>
-      <c r="K62" s="88"/>
-      <c r="L62" s="74"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="91"/>
+      <c r="H62" s="91"/>
+      <c r="I62" s="91"/>
+      <c r="J62" s="91"/>
+      <c r="K62" s="91"/>
+      <c r="L62" s="77"/>
       <c r="M62" s="12">
         <v>4</v>
       </c>
@@ -7666,17 +7968,17 @@
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B63" s="86"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="88"/>
-      <c r="E63" s="88"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="88"/>
-      <c r="H63" s="88"/>
-      <c r="I63" s="88"/>
-      <c r="J63" s="88"/>
-      <c r="K63" s="88"/>
-      <c r="L63" s="74"/>
+      <c r="B63" s="89"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="91"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="91"/>
+      <c r="H63" s="91"/>
+      <c r="I63" s="91"/>
+      <c r="J63" s="91"/>
+      <c r="K63" s="91"/>
+      <c r="L63" s="77"/>
       <c r="M63" s="12">
         <v>5</v>
       </c>
@@ -7685,28 +7987,28 @@
         <v/>
       </c>
       <c r="O63" s="65" t="str">
-        <f>IF(N63="","Día de mes siguiente",RIVAS!F37)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N63="","",RIVAS!F37)</f>
+        <v/>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B64" s="86"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="88"/>
-      <c r="E64" s="88"/>
-      <c r="F64" s="90"/>
-      <c r="G64" s="88"/>
-      <c r="H64" s="88"/>
-      <c r="I64" s="88"/>
-      <c r="J64" s="88"/>
-      <c r="K64" s="88"/>
-      <c r="L64" s="73" t="s">
+      <c r="B64" s="89"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="91"/>
+      <c r="E64" s="91"/>
+      <c r="F64" s="93"/>
+      <c r="G64" s="91"/>
+      <c r="H64" s="91"/>
+      <c r="I64" s="91"/>
+      <c r="J64" s="91"/>
+      <c r="K64" s="91"/>
+      <c r="L64" s="76" t="s">
         <v>50</v>
       </c>
       <c r="M64" s="5">
         <v>1</v>
       </c>
-      <c r="N64" s="94">
+      <c r="N64" s="19">
         <f>IF(RIVAS!E10="","",RIVAS!E10)</f>
         <v>2</v>
       </c>
@@ -7716,41 +8018,41 @@
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B65" s="86"/>
-      <c r="C65" s="86"/>
-      <c r="D65" s="88"/>
-      <c r="E65" s="88"/>
-      <c r="F65" s="90"/>
-      <c r="G65" s="88"/>
-      <c r="H65" s="88"/>
-      <c r="I65" s="88"/>
-      <c r="J65" s="88"/>
-      <c r="K65" s="88"/>
-      <c r="L65" s="74"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="91"/>
+      <c r="E65" s="91"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="91"/>
+      <c r="H65" s="91"/>
+      <c r="I65" s="91"/>
+      <c r="J65" s="91"/>
+      <c r="K65" s="91"/>
+      <c r="L65" s="77"/>
       <c r="M65" s="12">
         <v>2</v>
       </c>
       <c r="N65" s="19" t="str">
         <f>IF(RIVAS!E17="","",RIVAS!E17)</f>
-        <v/>
-      </c>
-      <c r="O65" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O65" s="66">
         <f>IF(N65="","",RIVAS!F17)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B66" s="86"/>
-      <c r="C66" s="86"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="88"/>
-      <c r="F66" s="90"/>
-      <c r="G66" s="88"/>
-      <c r="H66" s="88"/>
-      <c r="I66" s="88"/>
-      <c r="J66" s="88"/>
-      <c r="K66" s="88"/>
-      <c r="L66" s="74"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="91"/>
+      <c r="E66" s="91"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="91"/>
+      <c r="H66" s="91"/>
+      <c r="I66" s="91"/>
+      <c r="J66" s="91"/>
+      <c r="K66" s="91"/>
+      <c r="L66" s="77"/>
       <c r="M66" s="12">
         <v>3</v>
       </c>
@@ -7764,17 +8066,17 @@
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B67" s="86"/>
-      <c r="C67" s="86"/>
-      <c r="D67" s="88"/>
-      <c r="E67" s="88"/>
-      <c r="F67" s="90"/>
-      <c r="G67" s="88"/>
-      <c r="H67" s="88"/>
-      <c r="I67" s="88"/>
-      <c r="J67" s="88"/>
-      <c r="K67" s="88"/>
-      <c r="L67" s="74"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="91"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="91"/>
+      <c r="H67" s="91"/>
+      <c r="I67" s="91"/>
+      <c r="J67" s="91"/>
+      <c r="K67" s="91"/>
+      <c r="L67" s="77"/>
       <c r="M67" s="12">
         <v>4</v>
       </c>
@@ -7788,17 +8090,17 @@
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B68" s="86"/>
-      <c r="C68" s="86"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="88"/>
-      <c r="F68" s="90"/>
-      <c r="G68" s="88"/>
-      <c r="H68" s="88"/>
-      <c r="I68" s="88"/>
-      <c r="J68" s="88"/>
-      <c r="K68" s="88"/>
-      <c r="L68" s="74"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="93"/>
+      <c r="G68" s="91"/>
+      <c r="H68" s="91"/>
+      <c r="I68" s="91"/>
+      <c r="J68" s="91"/>
+      <c r="K68" s="91"/>
+      <c r="L68" s="77"/>
       <c r="M68" s="12">
         <v>5</v>
       </c>
@@ -7807,28 +8109,28 @@
         <v/>
       </c>
       <c r="O68" s="65" t="str">
-        <f>IF(N68="","Día de mes siguiente",RIVAS!F38)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N68="","",RIVAS!F38)</f>
+        <v/>
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B69" s="86"/>
-      <c r="C69" s="86"/>
-      <c r="D69" s="88"/>
-      <c r="E69" s="88"/>
-      <c r="F69" s="90"/>
-      <c r="G69" s="88"/>
-      <c r="H69" s="88"/>
-      <c r="I69" s="88"/>
-      <c r="J69" s="88"/>
-      <c r="K69" s="88"/>
-      <c r="L69" s="73" t="s">
+      <c r="B69" s="89"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="91"/>
+      <c r="F69" s="93"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="91"/>
+      <c r="J69" s="91"/>
+      <c r="K69" s="91"/>
+      <c r="L69" s="76" t="s">
         <v>51</v>
       </c>
       <c r="M69" s="5">
         <v>1</v>
       </c>
-      <c r="N69" s="94">
+      <c r="N69" s="19">
         <f>IF(RIVAS!E11="","",RIVAS!E11)</f>
         <v>2</v>
       </c>
@@ -7838,65 +8140,65 @@
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B70" s="86"/>
-      <c r="C70" s="86"/>
-      <c r="D70" s="88"/>
-      <c r="E70" s="88"/>
-      <c r="F70" s="90"/>
-      <c r="G70" s="88"/>
-      <c r="H70" s="88"/>
-      <c r="I70" s="88"/>
-      <c r="J70" s="88"/>
-      <c r="K70" s="88"/>
-      <c r="L70" s="74"/>
+      <c r="B70" s="89"/>
+      <c r="C70" s="89"/>
+      <c r="D70" s="91"/>
+      <c r="E70" s="91"/>
+      <c r="F70" s="93"/>
+      <c r="G70" s="91"/>
+      <c r="H70" s="91"/>
+      <c r="I70" s="91"/>
+      <c r="J70" s="91"/>
+      <c r="K70" s="91"/>
+      <c r="L70" s="77"/>
       <c r="M70" s="12">
         <v>2</v>
       </c>
       <c r="N70" s="19" t="str">
         <f>IF(RIVAS!E18="","",RIVAS!E18)</f>
-        <v/>
-      </c>
-      <c r="O70" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O70" s="66">
         <f>IF(N70="","",RIVAS!F18)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B71" s="86"/>
-      <c r="C71" s="86"/>
-      <c r="D71" s="88"/>
-      <c r="E71" s="88"/>
-      <c r="F71" s="90"/>
-      <c r="G71" s="88"/>
-      <c r="H71" s="88"/>
-      <c r="I71" s="88"/>
-      <c r="J71" s="88"/>
-      <c r="K71" s="88"/>
-      <c r="L71" s="74"/>
+      <c r="B71" s="89"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="91"/>
+      <c r="E71" s="91"/>
+      <c r="F71" s="93"/>
+      <c r="G71" s="91"/>
+      <c r="H71" s="91"/>
+      <c r="I71" s="91"/>
+      <c r="J71" s="91"/>
+      <c r="K71" s="91"/>
+      <c r="L71" s="77"/>
       <c r="M71" s="12">
         <v>3</v>
       </c>
       <c r="N71" s="19" t="str">
         <f>IF(RIVAS!E25="","",RIVAS!E25)</f>
-        <v/>
-      </c>
-      <c r="O71" s="65" t="str">
+        <v>Ex.Sup.</v>
+      </c>
+      <c r="O71" s="65">
         <f>IF(N71="","",RIVAS!F25)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B72" s="86"/>
-      <c r="C72" s="86"/>
-      <c r="D72" s="88"/>
-      <c r="E72" s="88"/>
-      <c r="F72" s="90"/>
-      <c r="G72" s="88"/>
-      <c r="H72" s="88"/>
-      <c r="I72" s="88"/>
-      <c r="J72" s="88"/>
-      <c r="K72" s="88"/>
-      <c r="L72" s="74"/>
+      <c r="B72" s="89"/>
+      <c r="C72" s="89"/>
+      <c r="D72" s="91"/>
+      <c r="E72" s="91"/>
+      <c r="F72" s="93"/>
+      <c r="G72" s="91"/>
+      <c r="H72" s="91"/>
+      <c r="I72" s="91"/>
+      <c r="J72" s="91"/>
+      <c r="K72" s="91"/>
+      <c r="L72" s="77"/>
       <c r="M72" s="12">
         <v>4</v>
       </c>
@@ -7910,17 +8212,17 @@
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B73" s="86"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="88"/>
-      <c r="E73" s="88"/>
-      <c r="F73" s="90"/>
-      <c r="G73" s="88"/>
-      <c r="H73" s="88"/>
-      <c r="I73" s="88"/>
-      <c r="J73" s="88"/>
-      <c r="K73" s="88"/>
-      <c r="L73" s="74"/>
+      <c r="B73" s="89"/>
+      <c r="C73" s="89"/>
+      <c r="D73" s="91"/>
+      <c r="E73" s="91"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="91"/>
+      <c r="H73" s="91"/>
+      <c r="I73" s="91"/>
+      <c r="J73" s="91"/>
+      <c r="K73" s="91"/>
+      <c r="L73" s="77"/>
       <c r="M73" s="12">
         <v>5</v>
       </c>
@@ -7929,28 +8231,28 @@
         <v/>
       </c>
       <c r="O73" s="65" t="str">
-        <f>IF(N73="","Día de mes siguiente",RIVAS!F39)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N73="","",RIVAS!F39)</f>
+        <v/>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B74" s="86"/>
-      <c r="C74" s="86"/>
-      <c r="D74" s="88"/>
-      <c r="E74" s="88"/>
-      <c r="F74" s="90"/>
-      <c r="G74" s="88"/>
-      <c r="H74" s="88"/>
-      <c r="I74" s="88"/>
-      <c r="J74" s="88"/>
-      <c r="K74" s="88"/>
-      <c r="L74" s="73" t="s">
+      <c r="B74" s="89"/>
+      <c r="C74" s="89"/>
+      <c r="D74" s="91"/>
+      <c r="E74" s="91"/>
+      <c r="F74" s="93"/>
+      <c r="G74" s="91"/>
+      <c r="H74" s="91"/>
+      <c r="I74" s="91"/>
+      <c r="J74" s="91"/>
+      <c r="K74" s="91"/>
+      <c r="L74" s="76" t="s">
         <v>52</v>
       </c>
       <c r="M74" s="5">
         <v>1</v>
       </c>
-      <c r="N74" s="94">
+      <c r="N74" s="19">
         <f>IF(RIVAS!E12="","",RIVAS!E12)</f>
         <v>2</v>
       </c>
@@ -7960,65 +8262,65 @@
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B75" s="86"/>
-      <c r="C75" s="86"/>
-      <c r="D75" s="88"/>
-      <c r="E75" s="88"/>
-      <c r="F75" s="90"/>
-      <c r="G75" s="88"/>
-      <c r="H75" s="88"/>
-      <c r="I75" s="88"/>
-      <c r="J75" s="88"/>
-      <c r="K75" s="88"/>
-      <c r="L75" s="74"/>
+      <c r="B75" s="89"/>
+      <c r="C75" s="89"/>
+      <c r="D75" s="91"/>
+      <c r="E75" s="91"/>
+      <c r="F75" s="93"/>
+      <c r="G75" s="91"/>
+      <c r="H75" s="91"/>
+      <c r="I75" s="91"/>
+      <c r="J75" s="91"/>
+      <c r="K75" s="91"/>
+      <c r="L75" s="77"/>
       <c r="M75" s="12">
         <v>2</v>
       </c>
       <c r="N75" s="19" t="str">
         <f>IF(RIVAS!E19="","",RIVAS!E19)</f>
-        <v/>
-      </c>
-      <c r="O75" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O75" s="66">
         <f>IF(N75="","",RIVAS!F19)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B76" s="86"/>
-      <c r="C76" s="86"/>
-      <c r="D76" s="88"/>
-      <c r="E76" s="88"/>
-      <c r="F76" s="90"/>
-      <c r="G76" s="88"/>
-      <c r="H76" s="88"/>
-      <c r="I76" s="88"/>
-      <c r="J76" s="88"/>
-      <c r="K76" s="88"/>
-      <c r="L76" s="74"/>
+      <c r="B76" s="89"/>
+      <c r="C76" s="89"/>
+      <c r="D76" s="91"/>
+      <c r="E76" s="91"/>
+      <c r="F76" s="93"/>
+      <c r="G76" s="91"/>
+      <c r="H76" s="91"/>
+      <c r="I76" s="91"/>
+      <c r="J76" s="91"/>
+      <c r="K76" s="91"/>
+      <c r="L76" s="77"/>
       <c r="M76" s="12">
         <v>3</v>
       </c>
       <c r="N76" s="19" t="str">
         <f>IF(RIVAS!E26="","",RIVAS!E26)</f>
-        <v/>
-      </c>
-      <c r="O76" s="65" t="str">
+        <v>Ex.Sup.</v>
+      </c>
+      <c r="O76" s="65">
         <f>IF(N76="","",RIVAS!F26)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B77" s="86"/>
-      <c r="C77" s="86"/>
-      <c r="D77" s="88"/>
-      <c r="E77" s="88"/>
-      <c r="F77" s="90"/>
-      <c r="G77" s="88"/>
-      <c r="H77" s="88"/>
-      <c r="I77" s="88"/>
-      <c r="J77" s="88"/>
-      <c r="K77" s="88"/>
-      <c r="L77" s="74"/>
+      <c r="B77" s="89"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="91"/>
+      <c r="F77" s="93"/>
+      <c r="G77" s="91"/>
+      <c r="H77" s="91"/>
+      <c r="I77" s="91"/>
+      <c r="J77" s="91"/>
+      <c r="K77" s="91"/>
+      <c r="L77" s="77"/>
       <c r="M77" s="12">
         <v>4</v>
       </c>
@@ -8032,17 +8334,17 @@
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B78" s="86"/>
-      <c r="C78" s="86"/>
-      <c r="D78" s="88"/>
-      <c r="E78" s="88"/>
-      <c r="F78" s="90"/>
-      <c r="G78" s="88"/>
-      <c r="H78" s="88"/>
-      <c r="I78" s="88"/>
-      <c r="J78" s="88"/>
-      <c r="K78" s="88"/>
-      <c r="L78" s="74"/>
+      <c r="B78" s="89"/>
+      <c r="C78" s="89"/>
+      <c r="D78" s="91"/>
+      <c r="E78" s="91"/>
+      <c r="F78" s="93"/>
+      <c r="G78" s="91"/>
+      <c r="H78" s="91"/>
+      <c r="I78" s="91"/>
+      <c r="J78" s="91"/>
+      <c r="K78" s="91"/>
+      <c r="L78" s="77"/>
       <c r="M78" s="12">
         <v>5</v>
       </c>
@@ -8051,43 +8353,43 @@
         <v/>
       </c>
       <c r="O78" s="65" t="str">
-        <f>IF(N78="","Día de mes siguiente",RIVAS!F40)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N78="","",RIVAS!F40)</f>
+        <v/>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B79" s="80" t="s">
+      <c r="B79" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="80" t="s">
+      <c r="C79" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="D79" s="77" t="s">
+      <c r="D79" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="E79" s="77" t="str">
+      <c r="E79" s="80" t="str">
         <f>E44</f>
         <v>MARZO</v>
       </c>
-      <c r="F79" s="89">
-        <v>1</v>
-      </c>
-      <c r="G79" s="91" t="s">
+      <c r="F79" s="92">
+        <v>1</v>
+      </c>
+      <c r="G79" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="H79" s="91" t="s">
+      <c r="H79" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="I79" s="91" t="s">
+      <c r="I79" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="J79" s="91" t="s">
+      <c r="J79" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="K79" s="91" t="s">
+      <c r="K79" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="L79" s="73" t="s">
+      <c r="L79" s="76" t="s">
         <v>69</v>
       </c>
       <c r="M79" s="5">
@@ -8103,65 +8405,65 @@
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B80" s="86"/>
-      <c r="C80" s="86"/>
-      <c r="D80" s="88"/>
-      <c r="E80" s="88"/>
-      <c r="F80" s="90"/>
-      <c r="G80" s="88"/>
-      <c r="H80" s="88"/>
-      <c r="I80" s="88"/>
-      <c r="J80" s="88"/>
-      <c r="K80" s="88"/>
-      <c r="L80" s="74"/>
+      <c r="B80" s="89"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="91"/>
+      <c r="E80" s="91"/>
+      <c r="F80" s="93"/>
+      <c r="G80" s="91"/>
+      <c r="H80" s="91"/>
+      <c r="I80" s="91"/>
+      <c r="J80" s="91"/>
+      <c r="K80" s="91"/>
+      <c r="L80" s="77"/>
       <c r="M80" s="12">
         <v>2</v>
       </c>
       <c r="N80" s="12" t="str">
         <f>IF(VELEZ!E13="","",VELEZ!E13)</f>
-        <v/>
-      </c>
-      <c r="O80" s="70" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O80" s="70">
         <f>IF(N80="","",VELEZ!F13)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B81" s="86"/>
-      <c r="C81" s="86"/>
-      <c r="D81" s="88"/>
-      <c r="E81" s="88"/>
-      <c r="F81" s="90"/>
-      <c r="G81" s="88"/>
-      <c r="H81" s="88"/>
-      <c r="I81" s="88"/>
-      <c r="J81" s="88"/>
-      <c r="K81" s="88"/>
-      <c r="L81" s="74"/>
+      <c r="B81" s="89"/>
+      <c r="C81" s="89"/>
+      <c r="D81" s="91"/>
+      <c r="E81" s="91"/>
+      <c r="F81" s="93"/>
+      <c r="G81" s="91"/>
+      <c r="H81" s="91"/>
+      <c r="I81" s="91"/>
+      <c r="J81" s="91"/>
+      <c r="K81" s="91"/>
+      <c r="L81" s="77"/>
       <c r="M81" s="12">
         <v>3</v>
       </c>
       <c r="N81" s="12" t="str">
         <f>IF(VELEZ!E20="","",VELEZ!E20)</f>
-        <v/>
-      </c>
-      <c r="O81" s="67" t="str">
+        <v>Ex.Sup.</v>
+      </c>
+      <c r="O81" s="67">
         <f>IF(N81="","",VELEZ!F20)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B82" s="86"/>
-      <c r="C82" s="86"/>
-      <c r="D82" s="88"/>
-      <c r="E82" s="88"/>
-      <c r="F82" s="90"/>
-      <c r="G82" s="88"/>
-      <c r="H82" s="88"/>
-      <c r="I82" s="88"/>
-      <c r="J82" s="88"/>
-      <c r="K82" s="88"/>
-      <c r="L82" s="74"/>
+      <c r="B82" s="89"/>
+      <c r="C82" s="89"/>
+      <c r="D82" s="91"/>
+      <c r="E82" s="91"/>
+      <c r="F82" s="93"/>
+      <c r="G82" s="91"/>
+      <c r="H82" s="91"/>
+      <c r="I82" s="91"/>
+      <c r="J82" s="91"/>
+      <c r="K82" s="91"/>
+      <c r="L82" s="77"/>
       <c r="M82" s="12">
         <v>4</v>
       </c>
@@ -8175,17 +8477,17 @@
       </c>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B83" s="86"/>
-      <c r="C83" s="86"/>
-      <c r="D83" s="88"/>
-      <c r="E83" s="88"/>
-      <c r="F83" s="90"/>
-      <c r="G83" s="88"/>
-      <c r="H83" s="88"/>
-      <c r="I83" s="88"/>
-      <c r="J83" s="88"/>
-      <c r="K83" s="88"/>
-      <c r="L83" s="74"/>
+      <c r="B83" s="89"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="91"/>
+      <c r="F83" s="93"/>
+      <c r="G83" s="91"/>
+      <c r="H83" s="91"/>
+      <c r="I83" s="91"/>
+      <c r="J83" s="91"/>
+      <c r="K83" s="91"/>
+      <c r="L83" s="77"/>
       <c r="M83" s="12">
         <v>5</v>
       </c>
@@ -8194,22 +8496,22 @@
         <v/>
       </c>
       <c r="O83" s="67" t="str">
-        <f>IF(N83="","Día de mes siguiente",VELEZ!F34)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N83="","",VELEZ!F34)</f>
+        <v/>
       </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B84" s="86"/>
-      <c r="C84" s="86"/>
-      <c r="D84" s="88"/>
-      <c r="E84" s="88"/>
-      <c r="F84" s="90"/>
-      <c r="G84" s="88"/>
-      <c r="H84" s="88"/>
-      <c r="I84" s="88"/>
-      <c r="J84" s="88"/>
-      <c r="K84" s="88"/>
-      <c r="L84" s="75" t="s">
+      <c r="B84" s="89"/>
+      <c r="C84" s="89"/>
+      <c r="D84" s="91"/>
+      <c r="E84" s="91"/>
+      <c r="F84" s="93"/>
+      <c r="G84" s="91"/>
+      <c r="H84" s="91"/>
+      <c r="I84" s="91"/>
+      <c r="J84" s="91"/>
+      <c r="K84" s="91"/>
+      <c r="L84" s="78" t="s">
         <v>70</v>
       </c>
       <c r="M84" s="46">
@@ -8225,65 +8527,65 @@
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B85" s="86"/>
-      <c r="C85" s="86"/>
-      <c r="D85" s="88"/>
-      <c r="E85" s="88"/>
-      <c r="F85" s="90"/>
-      <c r="G85" s="88"/>
-      <c r="H85" s="88"/>
-      <c r="I85" s="88"/>
-      <c r="J85" s="88"/>
-      <c r="K85" s="88"/>
-      <c r="L85" s="76"/>
+      <c r="B85" s="89"/>
+      <c r="C85" s="89"/>
+      <c r="D85" s="91"/>
+      <c r="E85" s="91"/>
+      <c r="F85" s="93"/>
+      <c r="G85" s="91"/>
+      <c r="H85" s="91"/>
+      <c r="I85" s="91"/>
+      <c r="J85" s="91"/>
+      <c r="K85" s="91"/>
+      <c r="L85" s="79"/>
       <c r="M85" s="19">
         <v>2</v>
       </c>
       <c r="N85" s="19" t="str">
         <f>IF(VELEZ!E14="","",VELEZ!E14)</f>
-        <v/>
-      </c>
-      <c r="O85" s="68" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O85" s="68">
         <f>IF(N85="","",VELEZ!F14)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B86" s="86"/>
-      <c r="C86" s="86"/>
-      <c r="D86" s="88"/>
-      <c r="E86" s="88"/>
-      <c r="F86" s="90"/>
-      <c r="G86" s="88"/>
-      <c r="H86" s="88"/>
-      <c r="I86" s="88"/>
-      <c r="J86" s="88"/>
-      <c r="K86" s="88"/>
-      <c r="L86" s="76"/>
+      <c r="B86" s="89"/>
+      <c r="C86" s="89"/>
+      <c r="D86" s="91"/>
+      <c r="E86" s="91"/>
+      <c r="F86" s="93"/>
+      <c r="G86" s="91"/>
+      <c r="H86" s="91"/>
+      <c r="I86" s="91"/>
+      <c r="J86" s="91"/>
+      <c r="K86" s="91"/>
+      <c r="L86" s="79"/>
       <c r="M86" s="19">
         <v>3</v>
       </c>
       <c r="N86" s="19" t="str">
         <f>IF(VELEZ!E21="","",VELEZ!E21)</f>
-        <v/>
-      </c>
-      <c r="O86" s="68" t="str">
+        <v>Ex.Sup.</v>
+      </c>
+      <c r="O86" s="68">
         <f>IF(N86="","",VELEZ!F21)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B87" s="86"/>
-      <c r="C87" s="86"/>
-      <c r="D87" s="88"/>
-      <c r="E87" s="88"/>
-      <c r="F87" s="90"/>
-      <c r="G87" s="88"/>
-      <c r="H87" s="88"/>
-      <c r="I87" s="88"/>
-      <c r="J87" s="88"/>
-      <c r="K87" s="88"/>
-      <c r="L87" s="76"/>
+      <c r="B87" s="89"/>
+      <c r="C87" s="89"/>
+      <c r="D87" s="91"/>
+      <c r="E87" s="91"/>
+      <c r="F87" s="93"/>
+      <c r="G87" s="91"/>
+      <c r="H87" s="91"/>
+      <c r="I87" s="91"/>
+      <c r="J87" s="91"/>
+      <c r="K87" s="91"/>
+      <c r="L87" s="79"/>
       <c r="M87" s="19">
         <v>4</v>
       </c>
@@ -8297,17 +8599,17 @@
       </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B88" s="86"/>
-      <c r="C88" s="86"/>
-      <c r="D88" s="88"/>
-      <c r="E88" s="88"/>
-      <c r="F88" s="90"/>
-      <c r="G88" s="88"/>
-      <c r="H88" s="88"/>
-      <c r="I88" s="88"/>
-      <c r="J88" s="88"/>
-      <c r="K88" s="88"/>
-      <c r="L88" s="76"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="91"/>
+      <c r="E88" s="91"/>
+      <c r="F88" s="93"/>
+      <c r="G88" s="91"/>
+      <c r="H88" s="91"/>
+      <c r="I88" s="91"/>
+      <c r="J88" s="91"/>
+      <c r="K88" s="91"/>
+      <c r="L88" s="79"/>
       <c r="M88" s="19">
         <v>5</v>
       </c>
@@ -8316,22 +8618,22 @@
         <v/>
       </c>
       <c r="O88" s="68" t="str">
-        <f>IF(N88="","Día de mes siguiente",VELEZ!F35)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N88="","",VELEZ!F35)</f>
+        <v/>
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B89" s="86"/>
-      <c r="C89" s="86"/>
-      <c r="D89" s="88"/>
-      <c r="E89" s="88"/>
-      <c r="F89" s="90"/>
-      <c r="G89" s="88"/>
-      <c r="H89" s="88"/>
-      <c r="I89" s="88"/>
-      <c r="J89" s="88"/>
-      <c r="K89" s="88"/>
-      <c r="L89" s="73" t="s">
+      <c r="B89" s="89"/>
+      <c r="C89" s="89"/>
+      <c r="D89" s="91"/>
+      <c r="E89" s="91"/>
+      <c r="F89" s="93"/>
+      <c r="G89" s="91"/>
+      <c r="H89" s="91"/>
+      <c r="I89" s="91"/>
+      <c r="J89" s="91"/>
+      <c r="K89" s="91"/>
+      <c r="L89" s="76" t="s">
         <v>75</v>
       </c>
       <c r="M89" s="5">
@@ -8347,41 +8649,41 @@
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B90" s="86"/>
-      <c r="C90" s="86"/>
-      <c r="D90" s="88"/>
-      <c r="E90" s="88"/>
-      <c r="F90" s="90"/>
-      <c r="G90" s="88"/>
-      <c r="H90" s="88"/>
-      <c r="I90" s="88"/>
-      <c r="J90" s="88"/>
-      <c r="K90" s="88"/>
-      <c r="L90" s="74"/>
+      <c r="B90" s="89"/>
+      <c r="C90" s="89"/>
+      <c r="D90" s="91"/>
+      <c r="E90" s="91"/>
+      <c r="F90" s="93"/>
+      <c r="G90" s="91"/>
+      <c r="H90" s="91"/>
+      <c r="I90" s="91"/>
+      <c r="J90" s="91"/>
+      <c r="K90" s="91"/>
+      <c r="L90" s="77"/>
       <c r="M90" s="12">
         <v>2</v>
       </c>
       <c r="N90" s="19" t="str">
         <f>IF(VELEZ!E15="","",VELEZ!E15)</f>
-        <v/>
-      </c>
-      <c r="O90" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O90" s="66">
         <f>IF(N90="","",VELEZ!F15)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B91" s="86"/>
-      <c r="C91" s="86"/>
-      <c r="D91" s="88"/>
-      <c r="E91" s="88"/>
-      <c r="F91" s="90"/>
-      <c r="G91" s="88"/>
-      <c r="H91" s="88"/>
-      <c r="I91" s="88"/>
-      <c r="J91" s="88"/>
-      <c r="K91" s="88"/>
-      <c r="L91" s="74"/>
+      <c r="B91" s="89"/>
+      <c r="C91" s="89"/>
+      <c r="D91" s="91"/>
+      <c r="E91" s="91"/>
+      <c r="F91" s="93"/>
+      <c r="G91" s="91"/>
+      <c r="H91" s="91"/>
+      <c r="I91" s="91"/>
+      <c r="J91" s="91"/>
+      <c r="K91" s="91"/>
+      <c r="L91" s="77"/>
       <c r="M91" s="12">
         <v>3</v>
       </c>
@@ -8395,17 +8697,17 @@
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B92" s="86"/>
-      <c r="C92" s="86"/>
-      <c r="D92" s="88"/>
-      <c r="E92" s="88"/>
-      <c r="F92" s="90"/>
-      <c r="G92" s="88"/>
-      <c r="H92" s="88"/>
-      <c r="I92" s="88"/>
-      <c r="J92" s="88"/>
-      <c r="K92" s="88"/>
-      <c r="L92" s="74"/>
+      <c r="B92" s="89"/>
+      <c r="C92" s="89"/>
+      <c r="D92" s="91"/>
+      <c r="E92" s="91"/>
+      <c r="F92" s="93"/>
+      <c r="G92" s="91"/>
+      <c r="H92" s="91"/>
+      <c r="I92" s="91"/>
+      <c r="J92" s="91"/>
+      <c r="K92" s="91"/>
+      <c r="L92" s="77"/>
       <c r="M92" s="12">
         <v>4</v>
       </c>
@@ -8419,17 +8721,17 @@
       </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B93" s="86"/>
-      <c r="C93" s="86"/>
-      <c r="D93" s="88"/>
-      <c r="E93" s="88"/>
-      <c r="F93" s="90"/>
-      <c r="G93" s="88"/>
-      <c r="H93" s="88"/>
-      <c r="I93" s="88"/>
-      <c r="J93" s="88"/>
-      <c r="K93" s="88"/>
-      <c r="L93" s="74"/>
+      <c r="B93" s="89"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="91"/>
+      <c r="E93" s="91"/>
+      <c r="F93" s="93"/>
+      <c r="G93" s="91"/>
+      <c r="H93" s="91"/>
+      <c r="I93" s="91"/>
+      <c r="J93" s="91"/>
+      <c r="K93" s="91"/>
+      <c r="L93" s="77"/>
       <c r="M93" s="12">
         <v>5</v>
       </c>
@@ -8438,22 +8740,22 @@
         <v/>
       </c>
       <c r="O93" s="65" t="str">
-        <f>IF(N93="","Día de mes siguiente",VELEZ!F36)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N93="","",VELEZ!F36)</f>
+        <v/>
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B94" s="86"/>
-      <c r="C94" s="86"/>
-      <c r="D94" s="88"/>
-      <c r="E94" s="88"/>
-      <c r="F94" s="90"/>
-      <c r="G94" s="88"/>
-      <c r="H94" s="88"/>
-      <c r="I94" s="88"/>
-      <c r="J94" s="88"/>
-      <c r="K94" s="88"/>
-      <c r="L94" s="73" t="s">
+      <c r="B94" s="89"/>
+      <c r="C94" s="89"/>
+      <c r="D94" s="91"/>
+      <c r="E94" s="91"/>
+      <c r="F94" s="93"/>
+      <c r="G94" s="91"/>
+      <c r="H94" s="91"/>
+      <c r="I94" s="91"/>
+      <c r="J94" s="91"/>
+      <c r="K94" s="91"/>
+      <c r="L94" s="76" t="s">
         <v>76</v>
       </c>
       <c r="M94" s="5">
@@ -8469,41 +8771,41 @@
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B95" s="86"/>
-      <c r="C95" s="86"/>
-      <c r="D95" s="88"/>
-      <c r="E95" s="88"/>
-      <c r="F95" s="90"/>
-      <c r="G95" s="88"/>
-      <c r="H95" s="88"/>
-      <c r="I95" s="88"/>
-      <c r="J95" s="88"/>
-      <c r="K95" s="88"/>
-      <c r="L95" s="74"/>
+      <c r="B95" s="89"/>
+      <c r="C95" s="89"/>
+      <c r="D95" s="91"/>
+      <c r="E95" s="91"/>
+      <c r="F95" s="93"/>
+      <c r="G95" s="91"/>
+      <c r="H95" s="91"/>
+      <c r="I95" s="91"/>
+      <c r="J95" s="91"/>
+      <c r="K95" s="91"/>
+      <c r="L95" s="77"/>
       <c r="M95" s="12">
         <v>2</v>
       </c>
       <c r="N95" s="19" t="str">
         <f>IF(VELEZ!E16="","",VELEZ!E16)</f>
-        <v/>
-      </c>
-      <c r="O95" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O95" s="66">
         <f>IF(N95="","",VELEZ!F16)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B96" s="86"/>
-      <c r="C96" s="86"/>
-      <c r="D96" s="88"/>
-      <c r="E96" s="88"/>
-      <c r="F96" s="90"/>
-      <c r="G96" s="88"/>
-      <c r="H96" s="88"/>
-      <c r="I96" s="88"/>
-      <c r="J96" s="88"/>
-      <c r="K96" s="88"/>
-      <c r="L96" s="74"/>
+      <c r="B96" s="89"/>
+      <c r="C96" s="89"/>
+      <c r="D96" s="91"/>
+      <c r="E96" s="91"/>
+      <c r="F96" s="93"/>
+      <c r="G96" s="91"/>
+      <c r="H96" s="91"/>
+      <c r="I96" s="91"/>
+      <c r="J96" s="91"/>
+      <c r="K96" s="91"/>
+      <c r="L96" s="77"/>
       <c r="M96" s="12">
         <v>3</v>
       </c>
@@ -8517,17 +8819,17 @@
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B97" s="86"/>
-      <c r="C97" s="86"/>
-      <c r="D97" s="88"/>
-      <c r="E97" s="88"/>
-      <c r="F97" s="90"/>
-      <c r="G97" s="88"/>
-      <c r="H97" s="88"/>
-      <c r="I97" s="88"/>
-      <c r="J97" s="88"/>
-      <c r="K97" s="88"/>
-      <c r="L97" s="74"/>
+      <c r="B97" s="89"/>
+      <c r="C97" s="89"/>
+      <c r="D97" s="91"/>
+      <c r="E97" s="91"/>
+      <c r="F97" s="93"/>
+      <c r="G97" s="91"/>
+      <c r="H97" s="91"/>
+      <c r="I97" s="91"/>
+      <c r="J97" s="91"/>
+      <c r="K97" s="91"/>
+      <c r="L97" s="77"/>
       <c r="M97" s="12">
         <v>4</v>
       </c>
@@ -8541,17 +8843,17 @@
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B98" s="86"/>
-      <c r="C98" s="86"/>
-      <c r="D98" s="88"/>
-      <c r="E98" s="88"/>
-      <c r="F98" s="90"/>
-      <c r="G98" s="88"/>
-      <c r="H98" s="88"/>
-      <c r="I98" s="88"/>
-      <c r="J98" s="88"/>
-      <c r="K98" s="88"/>
-      <c r="L98" s="74"/>
+      <c r="B98" s="89"/>
+      <c r="C98" s="89"/>
+      <c r="D98" s="91"/>
+      <c r="E98" s="91"/>
+      <c r="F98" s="93"/>
+      <c r="G98" s="91"/>
+      <c r="H98" s="91"/>
+      <c r="I98" s="91"/>
+      <c r="J98" s="91"/>
+      <c r="K98" s="91"/>
+      <c r="L98" s="77"/>
       <c r="M98" s="12">
         <v>5</v>
       </c>
@@ -8560,22 +8862,22 @@
         <v/>
       </c>
       <c r="O98" s="65" t="str">
-        <f>IF(N98="","Día de mes siguiente",VELEZ!F37)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N98="","",VELEZ!F37)</f>
+        <v/>
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B99" s="86"/>
-      <c r="C99" s="86"/>
-      <c r="D99" s="88"/>
-      <c r="E99" s="88"/>
-      <c r="F99" s="90"/>
-      <c r="G99" s="88"/>
-      <c r="H99" s="88"/>
-      <c r="I99" s="88"/>
-      <c r="J99" s="88"/>
-      <c r="K99" s="88"/>
-      <c r="L99" s="73" t="s">
+      <c r="B99" s="89"/>
+      <c r="C99" s="89"/>
+      <c r="D99" s="91"/>
+      <c r="E99" s="91"/>
+      <c r="F99" s="93"/>
+      <c r="G99" s="91"/>
+      <c r="H99" s="91"/>
+      <c r="I99" s="91"/>
+      <c r="J99" s="91"/>
+      <c r="K99" s="91"/>
+      <c r="L99" s="76" t="s">
         <v>16</v>
       </c>
       <c r="M99" s="5">
@@ -8591,65 +8893,65 @@
       </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B100" s="86"/>
-      <c r="C100" s="86"/>
-      <c r="D100" s="88"/>
-      <c r="E100" s="88"/>
-      <c r="F100" s="90"/>
-      <c r="G100" s="88"/>
-      <c r="H100" s="88"/>
-      <c r="I100" s="88"/>
-      <c r="J100" s="88"/>
-      <c r="K100" s="88"/>
-      <c r="L100" s="74"/>
+      <c r="B100" s="89"/>
+      <c r="C100" s="89"/>
+      <c r="D100" s="91"/>
+      <c r="E100" s="91"/>
+      <c r="F100" s="93"/>
+      <c r="G100" s="91"/>
+      <c r="H100" s="91"/>
+      <c r="I100" s="91"/>
+      <c r="J100" s="91"/>
+      <c r="K100" s="91"/>
+      <c r="L100" s="77"/>
       <c r="M100" s="12">
         <v>2</v>
       </c>
       <c r="N100" s="19" t="str">
         <f>IF(VELEZ!E17="","",VELEZ!E17)</f>
-        <v/>
-      </c>
-      <c r="O100" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O100" s="66">
         <f>IF(N100="","",VELEZ!F17)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B101" s="86"/>
-      <c r="C101" s="86"/>
-      <c r="D101" s="88"/>
-      <c r="E101" s="88"/>
-      <c r="F101" s="90"/>
-      <c r="G101" s="88"/>
-      <c r="H101" s="88"/>
-      <c r="I101" s="88"/>
-      <c r="J101" s="88"/>
-      <c r="K101" s="88"/>
-      <c r="L101" s="74"/>
+      <c r="B101" s="89"/>
+      <c r="C101" s="89"/>
+      <c r="D101" s="91"/>
+      <c r="E101" s="91"/>
+      <c r="F101" s="93"/>
+      <c r="G101" s="91"/>
+      <c r="H101" s="91"/>
+      <c r="I101" s="91"/>
+      <c r="J101" s="91"/>
+      <c r="K101" s="91"/>
+      <c r="L101" s="77"/>
       <c r="M101" s="12">
         <v>3</v>
       </c>
       <c r="N101" s="19" t="str">
         <f>IF(VELEZ!E24="","",VELEZ!E24)</f>
-        <v/>
-      </c>
-      <c r="O101" s="65" t="str">
+        <v>Ex.Sup.</v>
+      </c>
+      <c r="O101" s="65">
         <f>IF(N101="","",VELEZ!F24)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B102" s="86"/>
-      <c r="C102" s="86"/>
-      <c r="D102" s="88"/>
-      <c r="E102" s="88"/>
-      <c r="F102" s="90"/>
-      <c r="G102" s="88"/>
-      <c r="H102" s="88"/>
-      <c r="I102" s="88"/>
-      <c r="J102" s="88"/>
-      <c r="K102" s="88"/>
-      <c r="L102" s="74"/>
+      <c r="B102" s="89"/>
+      <c r="C102" s="89"/>
+      <c r="D102" s="91"/>
+      <c r="E102" s="91"/>
+      <c r="F102" s="93"/>
+      <c r="G102" s="91"/>
+      <c r="H102" s="91"/>
+      <c r="I102" s="91"/>
+      <c r="J102" s="91"/>
+      <c r="K102" s="91"/>
+      <c r="L102" s="77"/>
       <c r="M102" s="12">
         <v>4</v>
       </c>
@@ -8663,17 +8965,17 @@
       </c>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B103" s="86"/>
-      <c r="C103" s="86"/>
-      <c r="D103" s="88"/>
-      <c r="E103" s="88"/>
-      <c r="F103" s="90"/>
-      <c r="G103" s="88"/>
-      <c r="H103" s="88"/>
-      <c r="I103" s="88"/>
-      <c r="J103" s="88"/>
-      <c r="K103" s="88"/>
-      <c r="L103" s="74"/>
+      <c r="B103" s="89"/>
+      <c r="C103" s="89"/>
+      <c r="D103" s="91"/>
+      <c r="E103" s="91"/>
+      <c r="F103" s="93"/>
+      <c r="G103" s="91"/>
+      <c r="H103" s="91"/>
+      <c r="I103" s="91"/>
+      <c r="J103" s="91"/>
+      <c r="K103" s="91"/>
+      <c r="L103" s="77"/>
       <c r="M103" s="12">
         <v>5</v>
       </c>
@@ -8682,22 +8984,22 @@
         <v/>
       </c>
       <c r="O103" s="65" t="str">
-        <f>IF(N103="","Día de mes siguiente",VELEZ!F38)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N103="","",VELEZ!F38)</f>
+        <v/>
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B104" s="86"/>
-      <c r="C104" s="86"/>
-      <c r="D104" s="88"/>
-      <c r="E104" s="88"/>
-      <c r="F104" s="90"/>
-      <c r="G104" s="88"/>
-      <c r="H104" s="88"/>
-      <c r="I104" s="88"/>
-      <c r="J104" s="88"/>
-      <c r="K104" s="88"/>
-      <c r="L104" s="73" t="s">
+      <c r="B104" s="89"/>
+      <c r="C104" s="89"/>
+      <c r="D104" s="91"/>
+      <c r="E104" s="91"/>
+      <c r="F104" s="93"/>
+      <c r="G104" s="91"/>
+      <c r="H104" s="91"/>
+      <c r="I104" s="91"/>
+      <c r="J104" s="91"/>
+      <c r="K104" s="91"/>
+      <c r="L104" s="76" t="s">
         <v>17</v>
       </c>
       <c r="M104" s="5">
@@ -8713,65 +9015,65 @@
       </c>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B105" s="86"/>
-      <c r="C105" s="86"/>
-      <c r="D105" s="88"/>
-      <c r="E105" s="88"/>
-      <c r="F105" s="90"/>
-      <c r="G105" s="88"/>
-      <c r="H105" s="88"/>
-      <c r="I105" s="88"/>
-      <c r="J105" s="88"/>
-      <c r="K105" s="88"/>
-      <c r="L105" s="74"/>
+      <c r="B105" s="89"/>
+      <c r="C105" s="89"/>
+      <c r="D105" s="91"/>
+      <c r="E105" s="91"/>
+      <c r="F105" s="93"/>
+      <c r="G105" s="91"/>
+      <c r="H105" s="91"/>
+      <c r="I105" s="91"/>
+      <c r="J105" s="91"/>
+      <c r="K105" s="91"/>
+      <c r="L105" s="77"/>
       <c r="M105" s="12">
         <v>2</v>
       </c>
       <c r="N105" s="19" t="str">
         <f>IF(VELEZ!E18="","",VELEZ!E18)</f>
-        <v/>
-      </c>
-      <c r="O105" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O105" s="66">
         <f>IF(N105="","",VELEZ!F18)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B106" s="86"/>
-      <c r="C106" s="86"/>
-      <c r="D106" s="88"/>
-      <c r="E106" s="88"/>
-      <c r="F106" s="90"/>
-      <c r="G106" s="88"/>
-      <c r="H106" s="88"/>
-      <c r="I106" s="88"/>
-      <c r="J106" s="88"/>
-      <c r="K106" s="88"/>
-      <c r="L106" s="74"/>
+      <c r="B106" s="89"/>
+      <c r="C106" s="89"/>
+      <c r="D106" s="91"/>
+      <c r="E106" s="91"/>
+      <c r="F106" s="93"/>
+      <c r="G106" s="91"/>
+      <c r="H106" s="91"/>
+      <c r="I106" s="91"/>
+      <c r="J106" s="91"/>
+      <c r="K106" s="91"/>
+      <c r="L106" s="77"/>
       <c r="M106" s="12">
         <v>3</v>
       </c>
       <c r="N106" s="19" t="str">
         <f>IF(VELEZ!E25="","",VELEZ!E25)</f>
-        <v/>
-      </c>
-      <c r="O106" s="65" t="str">
+        <v>Ex.Sup.</v>
+      </c>
+      <c r="O106" s="65">
         <f>IF(N106="","",VELEZ!F25)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B107" s="86"/>
-      <c r="C107" s="86"/>
-      <c r="D107" s="88"/>
-      <c r="E107" s="88"/>
-      <c r="F107" s="90"/>
-      <c r="G107" s="88"/>
-      <c r="H107" s="88"/>
-      <c r="I107" s="88"/>
-      <c r="J107" s="88"/>
-      <c r="K107" s="88"/>
-      <c r="L107" s="74"/>
+      <c r="B107" s="89"/>
+      <c r="C107" s="89"/>
+      <c r="D107" s="91"/>
+      <c r="E107" s="91"/>
+      <c r="F107" s="93"/>
+      <c r="G107" s="91"/>
+      <c r="H107" s="91"/>
+      <c r="I107" s="91"/>
+      <c r="J107" s="91"/>
+      <c r="K107" s="91"/>
+      <c r="L107" s="77"/>
       <c r="M107" s="12">
         <v>4</v>
       </c>
@@ -8785,17 +9087,17 @@
       </c>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B108" s="86"/>
-      <c r="C108" s="86"/>
-      <c r="D108" s="88"/>
-      <c r="E108" s="88"/>
-      <c r="F108" s="90"/>
-      <c r="G108" s="88"/>
-      <c r="H108" s="88"/>
-      <c r="I108" s="88"/>
-      <c r="J108" s="88"/>
-      <c r="K108" s="88"/>
-      <c r="L108" s="74"/>
+      <c r="B108" s="89"/>
+      <c r="C108" s="89"/>
+      <c r="D108" s="91"/>
+      <c r="E108" s="91"/>
+      <c r="F108" s="93"/>
+      <c r="G108" s="91"/>
+      <c r="H108" s="91"/>
+      <c r="I108" s="91"/>
+      <c r="J108" s="91"/>
+      <c r="K108" s="91"/>
+      <c r="L108" s="77"/>
       <c r="M108" s="12">
         <v>5</v>
       </c>
@@ -8804,22 +9106,22 @@
         <v/>
       </c>
       <c r="O108" s="65" t="str">
-        <f>IF(N108="","Día de mes siguiente",VELEZ!F39)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N108="","",VELEZ!F39)</f>
+        <v/>
       </c>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B109" s="86"/>
-      <c r="C109" s="86"/>
-      <c r="D109" s="88"/>
-      <c r="E109" s="88"/>
-      <c r="F109" s="90"/>
-      <c r="G109" s="88"/>
-      <c r="H109" s="88"/>
-      <c r="I109" s="88"/>
-      <c r="J109" s="88"/>
-      <c r="K109" s="88"/>
-      <c r="L109" s="73" t="s">
+      <c r="B109" s="89"/>
+      <c r="C109" s="89"/>
+      <c r="D109" s="91"/>
+      <c r="E109" s="91"/>
+      <c r="F109" s="93"/>
+      <c r="G109" s="91"/>
+      <c r="H109" s="91"/>
+      <c r="I109" s="91"/>
+      <c r="J109" s="91"/>
+      <c r="K109" s="91"/>
+      <c r="L109" s="76" t="s">
         <v>73</v>
       </c>
       <c r="M109" s="5">
@@ -8835,65 +9137,65 @@
       </c>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B110" s="86"/>
-      <c r="C110" s="86"/>
-      <c r="D110" s="88"/>
-      <c r="E110" s="88"/>
-      <c r="F110" s="90"/>
-      <c r="G110" s="88"/>
-      <c r="H110" s="88"/>
-      <c r="I110" s="88"/>
-      <c r="J110" s="88"/>
-      <c r="K110" s="88"/>
-      <c r="L110" s="74"/>
+      <c r="B110" s="89"/>
+      <c r="C110" s="89"/>
+      <c r="D110" s="91"/>
+      <c r="E110" s="91"/>
+      <c r="F110" s="93"/>
+      <c r="G110" s="91"/>
+      <c r="H110" s="91"/>
+      <c r="I110" s="91"/>
+      <c r="J110" s="91"/>
+      <c r="K110" s="91"/>
+      <c r="L110" s="77"/>
       <c r="M110" s="12">
         <v>2</v>
       </c>
       <c r="N110" s="19" t="str">
         <f>IF(VELEZ!E19="","",VELEZ!E19)</f>
-        <v/>
-      </c>
-      <c r="O110" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O110" s="66">
         <f>IF(N110="","",VELEZ!F19)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B111" s="86"/>
-      <c r="C111" s="86"/>
-      <c r="D111" s="88"/>
-      <c r="E111" s="88"/>
-      <c r="F111" s="90"/>
-      <c r="G111" s="88"/>
-      <c r="H111" s="88"/>
-      <c r="I111" s="88"/>
-      <c r="J111" s="88"/>
-      <c r="K111" s="88"/>
-      <c r="L111" s="74"/>
+      <c r="B111" s="89"/>
+      <c r="C111" s="89"/>
+      <c r="D111" s="91"/>
+      <c r="E111" s="91"/>
+      <c r="F111" s="93"/>
+      <c r="G111" s="91"/>
+      <c r="H111" s="91"/>
+      <c r="I111" s="91"/>
+      <c r="J111" s="91"/>
+      <c r="K111" s="91"/>
+      <c r="L111" s="77"/>
       <c r="M111" s="12">
         <v>3</v>
       </c>
       <c r="N111" s="19" t="str">
         <f>IF(VELEZ!E26="","",VELEZ!E26)</f>
-        <v/>
-      </c>
-      <c r="O111" s="65" t="str">
+        <v>Ex.Sup.</v>
+      </c>
+      <c r="O111" s="65">
         <f>IF(N111="","",VELEZ!F26)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B112" s="86"/>
-      <c r="C112" s="86"/>
-      <c r="D112" s="88"/>
-      <c r="E112" s="88"/>
-      <c r="F112" s="90"/>
-      <c r="G112" s="88"/>
-      <c r="H112" s="88"/>
-      <c r="I112" s="88"/>
-      <c r="J112" s="88"/>
-      <c r="K112" s="88"/>
-      <c r="L112" s="74"/>
+      <c r="B112" s="89"/>
+      <c r="C112" s="89"/>
+      <c r="D112" s="91"/>
+      <c r="E112" s="91"/>
+      <c r="F112" s="93"/>
+      <c r="G112" s="91"/>
+      <c r="H112" s="91"/>
+      <c r="I112" s="91"/>
+      <c r="J112" s="91"/>
+      <c r="K112" s="91"/>
+      <c r="L112" s="77"/>
       <c r="M112" s="12">
         <v>4</v>
       </c>
@@ -8907,17 +9209,17 @@
       </c>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B113" s="86"/>
-      <c r="C113" s="86"/>
-      <c r="D113" s="88"/>
-      <c r="E113" s="88"/>
-      <c r="F113" s="90"/>
-      <c r="G113" s="88"/>
-      <c r="H113" s="88"/>
-      <c r="I113" s="88"/>
-      <c r="J113" s="88"/>
-      <c r="K113" s="88"/>
-      <c r="L113" s="74"/>
+      <c r="B113" s="89"/>
+      <c r="C113" s="89"/>
+      <c r="D113" s="91"/>
+      <c r="E113" s="91"/>
+      <c r="F113" s="93"/>
+      <c r="G113" s="91"/>
+      <c r="H113" s="91"/>
+      <c r="I113" s="91"/>
+      <c r="J113" s="91"/>
+      <c r="K113" s="91"/>
+      <c r="L113" s="77"/>
       <c r="M113" s="12">
         <v>5</v>
       </c>
@@ -8926,40 +9228,40 @@
         <v/>
       </c>
       <c r="O113" s="65" t="str">
-        <f>IF(N113="","Día de mes siguiente",VELEZ!F40)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N113="","",VELEZ!F40)</f>
+        <v/>
       </c>
     </row>
     <row r="114" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="80"/>
-      <c r="C114" s="80" t="s">
+      <c r="B114" s="83"/>
+      <c r="C114" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D114" s="77" t="s">
+      <c r="D114" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="E114" s="77" t="s">
+      <c r="E114" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="F114" s="89">
-        <v>1</v>
-      </c>
-      <c r="G114" s="77" t="s">
+      <c r="F114" s="92">
+        <v>1</v>
+      </c>
+      <c r="G114" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="H114" s="77" t="s">
+      <c r="H114" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="I114" s="77" t="s">
+      <c r="I114" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="J114" s="91" t="s">
+      <c r="J114" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="K114" s="91" t="s">
+      <c r="K114" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="L114" s="73" t="s">
+      <c r="L114" s="76" t="s">
         <v>59</v>
       </c>
       <c r="M114" s="5">
@@ -8975,17 +9277,17 @@
       </c>
     </row>
     <row r="115" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="86"/>
-      <c r="C115" s="86"/>
-      <c r="D115" s="88"/>
-      <c r="E115" s="88"/>
-      <c r="F115" s="90"/>
-      <c r="G115" s="88"/>
-      <c r="H115" s="88"/>
-      <c r="I115" s="88"/>
-      <c r="J115" s="88"/>
-      <c r="K115" s="88"/>
-      <c r="L115" s="74"/>
+      <c r="B115" s="89"/>
+      <c r="C115" s="89"/>
+      <c r="D115" s="91"/>
+      <c r="E115" s="91"/>
+      <c r="F115" s="93"/>
+      <c r="G115" s="91"/>
+      <c r="H115" s="91"/>
+      <c r="I115" s="91"/>
+      <c r="J115" s="91"/>
+      <c r="K115" s="91"/>
+      <c r="L115" s="77"/>
       <c r="M115" s="12">
         <v>2</v>
       </c>
@@ -8999,17 +9301,17 @@
       </c>
     </row>
     <row r="116" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="86"/>
-      <c r="C116" s="86"/>
-      <c r="D116" s="88"/>
-      <c r="E116" s="88"/>
-      <c r="F116" s="90"/>
-      <c r="G116" s="88"/>
-      <c r="H116" s="88"/>
-      <c r="I116" s="88"/>
-      <c r="J116" s="88"/>
-      <c r="K116" s="88"/>
-      <c r="L116" s="74"/>
+      <c r="B116" s="89"/>
+      <c r="C116" s="89"/>
+      <c r="D116" s="91"/>
+      <c r="E116" s="91"/>
+      <c r="F116" s="93"/>
+      <c r="G116" s="91"/>
+      <c r="H116" s="91"/>
+      <c r="I116" s="91"/>
+      <c r="J116" s="91"/>
+      <c r="K116" s="91"/>
+      <c r="L116" s="77"/>
       <c r="M116" s="12">
         <v>3</v>
       </c>
@@ -9023,17 +9325,17 @@
       </c>
     </row>
     <row r="117" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="86"/>
-      <c r="C117" s="86"/>
-      <c r="D117" s="88"/>
-      <c r="E117" s="88"/>
-      <c r="F117" s="90"/>
-      <c r="G117" s="88"/>
-      <c r="H117" s="88"/>
-      <c r="I117" s="88"/>
-      <c r="J117" s="88"/>
-      <c r="K117" s="88"/>
-      <c r="L117" s="74"/>
+      <c r="B117" s="89"/>
+      <c r="C117" s="89"/>
+      <c r="D117" s="91"/>
+      <c r="E117" s="91"/>
+      <c r="F117" s="93"/>
+      <c r="G117" s="91"/>
+      <c r="H117" s="91"/>
+      <c r="I117" s="91"/>
+      <c r="J117" s="91"/>
+      <c r="K117" s="91"/>
+      <c r="L117" s="77"/>
       <c r="M117" s="12">
         <v>4</v>
       </c>
@@ -9047,17 +9349,17 @@
       </c>
     </row>
     <row r="118" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="86"/>
-      <c r="C118" s="86"/>
-      <c r="D118" s="88"/>
-      <c r="E118" s="88"/>
-      <c r="F118" s="90"/>
-      <c r="G118" s="88"/>
-      <c r="H118" s="88"/>
-      <c r="I118" s="88"/>
-      <c r="J118" s="88"/>
-      <c r="K118" s="88"/>
-      <c r="L118" s="74"/>
+      <c r="B118" s="89"/>
+      <c r="C118" s="89"/>
+      <c r="D118" s="91"/>
+      <c r="E118" s="91"/>
+      <c r="F118" s="93"/>
+      <c r="G118" s="91"/>
+      <c r="H118" s="91"/>
+      <c r="I118" s="91"/>
+      <c r="J118" s="91"/>
+      <c r="K118" s="91"/>
+      <c r="L118" s="77"/>
       <c r="M118" s="12">
         <v>5</v>
       </c>
@@ -9066,22 +9368,22 @@
         <v/>
       </c>
       <c r="O118" s="67" t="str">
-        <f>IF(N118="","Día de mes siguiente",VELEZ!F41)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N118="","",VELEZ!F41)</f>
+        <v/>
       </c>
     </row>
     <row r="119" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="86"/>
-      <c r="C119" s="86"/>
-      <c r="D119" s="88"/>
-      <c r="E119" s="88"/>
-      <c r="F119" s="90"/>
-      <c r="G119" s="88"/>
-      <c r="H119" s="88"/>
-      <c r="I119" s="88"/>
-      <c r="J119" s="88"/>
-      <c r="K119" s="88"/>
-      <c r="L119" s="75" t="s">
+      <c r="B119" s="89"/>
+      <c r="C119" s="89"/>
+      <c r="D119" s="91"/>
+      <c r="E119" s="91"/>
+      <c r="F119" s="93"/>
+      <c r="G119" s="91"/>
+      <c r="H119" s="91"/>
+      <c r="I119" s="91"/>
+      <c r="J119" s="91"/>
+      <c r="K119" s="91"/>
+      <c r="L119" s="78" t="s">
         <v>61</v>
       </c>
       <c r="M119" s="46">
@@ -9094,17 +9396,17 @@
       </c>
     </row>
     <row r="120" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="86"/>
-      <c r="C120" s="86"/>
-      <c r="D120" s="88"/>
-      <c r="E120" s="88"/>
-      <c r="F120" s="90"/>
-      <c r="G120" s="88"/>
-      <c r="H120" s="88"/>
-      <c r="I120" s="88"/>
-      <c r="J120" s="88"/>
-      <c r="K120" s="88"/>
-      <c r="L120" s="76"/>
+      <c r="B120" s="89"/>
+      <c r="C120" s="89"/>
+      <c r="D120" s="91"/>
+      <c r="E120" s="91"/>
+      <c r="F120" s="93"/>
+      <c r="G120" s="91"/>
+      <c r="H120" s="91"/>
+      <c r="I120" s="91"/>
+      <c r="J120" s="91"/>
+      <c r="K120" s="91"/>
+      <c r="L120" s="79"/>
       <c r="M120" s="19">
         <v>2</v>
       </c>
@@ -9115,17 +9417,17 @@
       </c>
     </row>
     <row r="121" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="86"/>
-      <c r="C121" s="86"/>
-      <c r="D121" s="88"/>
-      <c r="E121" s="88"/>
-      <c r="F121" s="90"/>
-      <c r="G121" s="88"/>
-      <c r="H121" s="88"/>
-      <c r="I121" s="88"/>
-      <c r="J121" s="88"/>
-      <c r="K121" s="88"/>
-      <c r="L121" s="76"/>
+      <c r="B121" s="89"/>
+      <c r="C121" s="89"/>
+      <c r="D121" s="91"/>
+      <c r="E121" s="91"/>
+      <c r="F121" s="93"/>
+      <c r="G121" s="91"/>
+      <c r="H121" s="91"/>
+      <c r="I121" s="91"/>
+      <c r="J121" s="91"/>
+      <c r="K121" s="91"/>
+      <c r="L121" s="79"/>
       <c r="M121" s="19">
         <v>3</v>
       </c>
@@ -9136,17 +9438,17 @@
       </c>
     </row>
     <row r="122" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="86"/>
-      <c r="C122" s="86"/>
-      <c r="D122" s="88"/>
-      <c r="E122" s="88"/>
-      <c r="F122" s="90"/>
-      <c r="G122" s="88"/>
-      <c r="H122" s="88"/>
-      <c r="I122" s="88"/>
-      <c r="J122" s="88"/>
-      <c r="K122" s="88"/>
-      <c r="L122" s="76"/>
+      <c r="B122" s="89"/>
+      <c r="C122" s="89"/>
+      <c r="D122" s="91"/>
+      <c r="E122" s="91"/>
+      <c r="F122" s="93"/>
+      <c r="G122" s="91"/>
+      <c r="H122" s="91"/>
+      <c r="I122" s="91"/>
+      <c r="J122" s="91"/>
+      <c r="K122" s="91"/>
+      <c r="L122" s="79"/>
       <c r="M122" s="19">
         <v>4</v>
       </c>
@@ -9157,38 +9459,38 @@
       </c>
     </row>
     <row r="123" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="86"/>
-      <c r="C123" s="86"/>
-      <c r="D123" s="88"/>
-      <c r="E123" s="88"/>
-      <c r="F123" s="90"/>
-      <c r="G123" s="88"/>
-      <c r="H123" s="88"/>
-      <c r="I123" s="88"/>
-      <c r="J123" s="88"/>
-      <c r="K123" s="88"/>
-      <c r="L123" s="76"/>
+      <c r="B123" s="89"/>
+      <c r="C123" s="89"/>
+      <c r="D123" s="91"/>
+      <c r="E123" s="91"/>
+      <c r="F123" s="93"/>
+      <c r="G123" s="91"/>
+      <c r="H123" s="91"/>
+      <c r="I123" s="91"/>
+      <c r="J123" s="91"/>
+      <c r="K123" s="91"/>
+      <c r="L123" s="79"/>
       <c r="M123" s="19">
         <v>5</v>
       </c>
       <c r="N123" s="19"/>
       <c r="O123" s="68" t="str">
-        <f>IF(N123="","Día de mes siguiente",VELEZ!F42)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N123="","",VELEZ!F42)</f>
+        <v/>
       </c>
     </row>
     <row r="124" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="86"/>
-      <c r="C124" s="86"/>
-      <c r="D124" s="88"/>
-      <c r="E124" s="88"/>
-      <c r="F124" s="90"/>
-      <c r="G124" s="88"/>
-      <c r="H124" s="88"/>
-      <c r="I124" s="88"/>
-      <c r="J124" s="88"/>
-      <c r="K124" s="88"/>
-      <c r="L124" s="73" t="s">
+      <c r="B124" s="89"/>
+      <c r="C124" s="89"/>
+      <c r="D124" s="91"/>
+      <c r="E124" s="91"/>
+      <c r="F124" s="93"/>
+      <c r="G124" s="91"/>
+      <c r="H124" s="91"/>
+      <c r="I124" s="91"/>
+      <c r="J124" s="91"/>
+      <c r="K124" s="91"/>
+      <c r="L124" s="76" t="s">
         <v>62</v>
       </c>
       <c r="M124" s="5">
@@ -9204,17 +9506,17 @@
       </c>
     </row>
     <row r="125" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="86"/>
-      <c r="C125" s="86"/>
-      <c r="D125" s="88"/>
-      <c r="E125" s="88"/>
-      <c r="F125" s="90"/>
-      <c r="G125" s="88"/>
-      <c r="H125" s="88"/>
-      <c r="I125" s="88"/>
-      <c r="J125" s="88"/>
-      <c r="K125" s="88"/>
-      <c r="L125" s="74"/>
+      <c r="B125" s="89"/>
+      <c r="C125" s="89"/>
+      <c r="D125" s="91"/>
+      <c r="E125" s="91"/>
+      <c r="F125" s="93"/>
+      <c r="G125" s="91"/>
+      <c r="H125" s="91"/>
+      <c r="I125" s="91"/>
+      <c r="J125" s="91"/>
+      <c r="K125" s="91"/>
+      <c r="L125" s="77"/>
       <c r="M125" s="12">
         <v>2</v>
       </c>
@@ -9228,17 +9530,17 @@
       </c>
     </row>
     <row r="126" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="86"/>
-      <c r="C126" s="86"/>
-      <c r="D126" s="88"/>
-      <c r="E126" s="88"/>
-      <c r="F126" s="90"/>
-      <c r="G126" s="88"/>
-      <c r="H126" s="88"/>
-      <c r="I126" s="88"/>
-      <c r="J126" s="88"/>
-      <c r="K126" s="88"/>
-      <c r="L126" s="74"/>
+      <c r="B126" s="89"/>
+      <c r="C126" s="89"/>
+      <c r="D126" s="91"/>
+      <c r="E126" s="91"/>
+      <c r="F126" s="93"/>
+      <c r="G126" s="91"/>
+      <c r="H126" s="91"/>
+      <c r="I126" s="91"/>
+      <c r="J126" s="91"/>
+      <c r="K126" s="91"/>
+      <c r="L126" s="77"/>
       <c r="M126" s="12">
         <v>3</v>
       </c>
@@ -9252,17 +9554,17 @@
       </c>
     </row>
     <row r="127" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="86"/>
-      <c r="C127" s="86"/>
-      <c r="D127" s="88"/>
-      <c r="E127" s="88"/>
-      <c r="F127" s="90"/>
-      <c r="G127" s="88"/>
-      <c r="H127" s="88"/>
-      <c r="I127" s="88"/>
-      <c r="J127" s="88"/>
-      <c r="K127" s="88"/>
-      <c r="L127" s="74"/>
+      <c r="B127" s="89"/>
+      <c r="C127" s="89"/>
+      <c r="D127" s="91"/>
+      <c r="E127" s="91"/>
+      <c r="F127" s="93"/>
+      <c r="G127" s="91"/>
+      <c r="H127" s="91"/>
+      <c r="I127" s="91"/>
+      <c r="J127" s="91"/>
+      <c r="K127" s="91"/>
+      <c r="L127" s="77"/>
       <c r="M127" s="12">
         <v>4</v>
       </c>
@@ -9276,17 +9578,17 @@
       </c>
     </row>
     <row r="128" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="86"/>
-      <c r="C128" s="86"/>
-      <c r="D128" s="88"/>
-      <c r="E128" s="88"/>
-      <c r="F128" s="90"/>
-      <c r="G128" s="88"/>
-      <c r="H128" s="88"/>
-      <c r="I128" s="88"/>
-      <c r="J128" s="88"/>
-      <c r="K128" s="88"/>
-      <c r="L128" s="74"/>
+      <c r="B128" s="89"/>
+      <c r="C128" s="89"/>
+      <c r="D128" s="91"/>
+      <c r="E128" s="91"/>
+      <c r="F128" s="93"/>
+      <c r="G128" s="91"/>
+      <c r="H128" s="91"/>
+      <c r="I128" s="91"/>
+      <c r="J128" s="91"/>
+      <c r="K128" s="91"/>
+      <c r="L128" s="77"/>
       <c r="M128" s="12">
         <v>5</v>
       </c>
@@ -9295,22 +9597,22 @@
         <v/>
       </c>
       <c r="O128" s="65" t="str">
-        <f>IF(N128="","Día de mes siguiente",VELEZ!F43)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N128="","",VELEZ!F43)</f>
+        <v/>
       </c>
     </row>
     <row r="129" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="86"/>
-      <c r="C129" s="86"/>
-      <c r="D129" s="88"/>
-      <c r="E129" s="88"/>
-      <c r="F129" s="90"/>
-      <c r="G129" s="88"/>
-      <c r="H129" s="88"/>
-      <c r="I129" s="88"/>
-      <c r="J129" s="88"/>
-      <c r="K129" s="88"/>
-      <c r="L129" s="73" t="s">
+      <c r="B129" s="89"/>
+      <c r="C129" s="89"/>
+      <c r="D129" s="91"/>
+      <c r="E129" s="91"/>
+      <c r="F129" s="93"/>
+      <c r="G129" s="91"/>
+      <c r="H129" s="91"/>
+      <c r="I129" s="91"/>
+      <c r="J129" s="91"/>
+      <c r="K129" s="91"/>
+      <c r="L129" s="76" t="s">
         <v>60</v>
       </c>
       <c r="M129" s="5">
@@ -9326,17 +9628,17 @@
       </c>
     </row>
     <row r="130" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="86"/>
-      <c r="C130" s="86"/>
-      <c r="D130" s="88"/>
-      <c r="E130" s="88"/>
-      <c r="F130" s="90"/>
-      <c r="G130" s="88"/>
-      <c r="H130" s="88"/>
-      <c r="I130" s="88"/>
-      <c r="J130" s="88"/>
-      <c r="K130" s="88"/>
-      <c r="L130" s="74"/>
+      <c r="B130" s="89"/>
+      <c r="C130" s="89"/>
+      <c r="D130" s="91"/>
+      <c r="E130" s="91"/>
+      <c r="F130" s="93"/>
+      <c r="G130" s="91"/>
+      <c r="H130" s="91"/>
+      <c r="I130" s="91"/>
+      <c r="J130" s="91"/>
+      <c r="K130" s="91"/>
+      <c r="L130" s="77"/>
       <c r="M130" s="12">
         <v>2</v>
       </c>
@@ -9350,17 +9652,17 @@
       </c>
     </row>
     <row r="131" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="86"/>
-      <c r="C131" s="86"/>
-      <c r="D131" s="88"/>
-      <c r="E131" s="88"/>
-      <c r="F131" s="90"/>
-      <c r="G131" s="88"/>
-      <c r="H131" s="88"/>
-      <c r="I131" s="88"/>
-      <c r="J131" s="88"/>
-      <c r="K131" s="88"/>
-      <c r="L131" s="74"/>
+      <c r="B131" s="89"/>
+      <c r="C131" s="89"/>
+      <c r="D131" s="91"/>
+      <c r="E131" s="91"/>
+      <c r="F131" s="93"/>
+      <c r="G131" s="91"/>
+      <c r="H131" s="91"/>
+      <c r="I131" s="91"/>
+      <c r="J131" s="91"/>
+      <c r="K131" s="91"/>
+      <c r="L131" s="77"/>
       <c r="M131" s="12">
         <v>3</v>
       </c>
@@ -9374,17 +9676,17 @@
       </c>
     </row>
     <row r="132" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="86"/>
-      <c r="C132" s="86"/>
-      <c r="D132" s="88"/>
-      <c r="E132" s="88"/>
-      <c r="F132" s="90"/>
-      <c r="G132" s="88"/>
-      <c r="H132" s="88"/>
-      <c r="I132" s="88"/>
-      <c r="J132" s="88"/>
-      <c r="K132" s="88"/>
-      <c r="L132" s="74"/>
+      <c r="B132" s="89"/>
+      <c r="C132" s="89"/>
+      <c r="D132" s="91"/>
+      <c r="E132" s="91"/>
+      <c r="F132" s="93"/>
+      <c r="G132" s="91"/>
+      <c r="H132" s="91"/>
+      <c r="I132" s="91"/>
+      <c r="J132" s="91"/>
+      <c r="K132" s="91"/>
+      <c r="L132" s="77"/>
       <c r="M132" s="12">
         <v>4</v>
       </c>
@@ -9398,17 +9700,17 @@
       </c>
     </row>
     <row r="133" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="86"/>
-      <c r="C133" s="86"/>
-      <c r="D133" s="88"/>
-      <c r="E133" s="88"/>
-      <c r="F133" s="90"/>
-      <c r="G133" s="88"/>
-      <c r="H133" s="88"/>
-      <c r="I133" s="88"/>
-      <c r="J133" s="88"/>
-      <c r="K133" s="88"/>
-      <c r="L133" s="74"/>
+      <c r="B133" s="89"/>
+      <c r="C133" s="89"/>
+      <c r="D133" s="91"/>
+      <c r="E133" s="91"/>
+      <c r="F133" s="93"/>
+      <c r="G133" s="91"/>
+      <c r="H133" s="91"/>
+      <c r="I133" s="91"/>
+      <c r="J133" s="91"/>
+      <c r="K133" s="91"/>
+      <c r="L133" s="77"/>
       <c r="M133" s="12">
         <v>5</v>
       </c>
@@ -9417,22 +9719,22 @@
         <v/>
       </c>
       <c r="O133" s="65" t="str">
-        <f>IF(N133="","Día de mes siguiente",VELEZ!F44)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N133="","",VELEZ!F44)</f>
+        <v/>
       </c>
     </row>
     <row r="134" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="86"/>
-      <c r="C134" s="86"/>
-      <c r="D134" s="88"/>
-      <c r="E134" s="88"/>
-      <c r="F134" s="90"/>
-      <c r="G134" s="88"/>
-      <c r="H134" s="88"/>
-      <c r="I134" s="88"/>
-      <c r="J134" s="88"/>
-      <c r="K134" s="88"/>
-      <c r="L134" s="73" t="s">
+      <c r="B134" s="89"/>
+      <c r="C134" s="89"/>
+      <c r="D134" s="91"/>
+      <c r="E134" s="91"/>
+      <c r="F134" s="93"/>
+      <c r="G134" s="91"/>
+      <c r="H134" s="91"/>
+      <c r="I134" s="91"/>
+      <c r="J134" s="91"/>
+      <c r="K134" s="91"/>
+      <c r="L134" s="76" t="s">
         <v>63</v>
       </c>
       <c r="M134" s="5">
@@ -9448,17 +9750,17 @@
       </c>
     </row>
     <row r="135" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="86"/>
-      <c r="C135" s="86"/>
-      <c r="D135" s="88"/>
-      <c r="E135" s="88"/>
-      <c r="F135" s="90"/>
-      <c r="G135" s="88"/>
-      <c r="H135" s="88"/>
-      <c r="I135" s="88"/>
-      <c r="J135" s="88"/>
-      <c r="K135" s="88"/>
-      <c r="L135" s="74"/>
+      <c r="B135" s="89"/>
+      <c r="C135" s="89"/>
+      <c r="D135" s="91"/>
+      <c r="E135" s="91"/>
+      <c r="F135" s="93"/>
+      <c r="G135" s="91"/>
+      <c r="H135" s="91"/>
+      <c r="I135" s="91"/>
+      <c r="J135" s="91"/>
+      <c r="K135" s="91"/>
+      <c r="L135" s="77"/>
       <c r="M135" s="12">
         <v>2</v>
       </c>
@@ -9472,17 +9774,17 @@
       </c>
     </row>
     <row r="136" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="86"/>
-      <c r="C136" s="86"/>
-      <c r="D136" s="88"/>
-      <c r="E136" s="88"/>
-      <c r="F136" s="90"/>
-      <c r="G136" s="88"/>
-      <c r="H136" s="88"/>
-      <c r="I136" s="88"/>
-      <c r="J136" s="88"/>
-      <c r="K136" s="88"/>
-      <c r="L136" s="74"/>
+      <c r="B136" s="89"/>
+      <c r="C136" s="89"/>
+      <c r="D136" s="91"/>
+      <c r="E136" s="91"/>
+      <c r="F136" s="93"/>
+      <c r="G136" s="91"/>
+      <c r="H136" s="91"/>
+      <c r="I136" s="91"/>
+      <c r="J136" s="91"/>
+      <c r="K136" s="91"/>
+      <c r="L136" s="77"/>
       <c r="M136" s="12">
         <v>3</v>
       </c>
@@ -9496,17 +9798,17 @@
       </c>
     </row>
     <row r="137" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="86"/>
-      <c r="C137" s="86"/>
-      <c r="D137" s="88"/>
-      <c r="E137" s="88"/>
-      <c r="F137" s="90"/>
-      <c r="G137" s="88"/>
-      <c r="H137" s="88"/>
-      <c r="I137" s="88"/>
-      <c r="J137" s="88"/>
-      <c r="K137" s="88"/>
-      <c r="L137" s="74"/>
+      <c r="B137" s="89"/>
+      <c r="C137" s="89"/>
+      <c r="D137" s="91"/>
+      <c r="E137" s="91"/>
+      <c r="F137" s="93"/>
+      <c r="G137" s="91"/>
+      <c r="H137" s="91"/>
+      <c r="I137" s="91"/>
+      <c r="J137" s="91"/>
+      <c r="K137" s="91"/>
+      <c r="L137" s="77"/>
       <c r="M137" s="12">
         <v>4</v>
       </c>
@@ -9520,17 +9822,17 @@
       </c>
     </row>
     <row r="138" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="86"/>
-      <c r="C138" s="86"/>
-      <c r="D138" s="88"/>
-      <c r="E138" s="88"/>
-      <c r="F138" s="90"/>
-      <c r="G138" s="88"/>
-      <c r="H138" s="88"/>
-      <c r="I138" s="88"/>
-      <c r="J138" s="88"/>
-      <c r="K138" s="88"/>
-      <c r="L138" s="74"/>
+      <c r="B138" s="89"/>
+      <c r="C138" s="89"/>
+      <c r="D138" s="91"/>
+      <c r="E138" s="91"/>
+      <c r="F138" s="93"/>
+      <c r="G138" s="91"/>
+      <c r="H138" s="91"/>
+      <c r="I138" s="91"/>
+      <c r="J138" s="91"/>
+      <c r="K138" s="91"/>
+      <c r="L138" s="77"/>
       <c r="M138" s="12">
         <v>5</v>
       </c>
@@ -9539,22 +9841,22 @@
         <v/>
       </c>
       <c r="O138" s="65" t="str">
-        <f>IF(N138="","Día de mes siguiente",VELEZ!F45)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N138="","",VELEZ!F45)</f>
+        <v/>
       </c>
     </row>
     <row r="139" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="86"/>
-      <c r="C139" s="86"/>
-      <c r="D139" s="88"/>
-      <c r="E139" s="88"/>
-      <c r="F139" s="90"/>
-      <c r="G139" s="88"/>
-      <c r="H139" s="88"/>
-      <c r="I139" s="88"/>
-      <c r="J139" s="88"/>
-      <c r="K139" s="88"/>
-      <c r="L139" s="73" t="s">
+      <c r="B139" s="89"/>
+      <c r="C139" s="89"/>
+      <c r="D139" s="91"/>
+      <c r="E139" s="91"/>
+      <c r="F139" s="93"/>
+      <c r="G139" s="91"/>
+      <c r="H139" s="91"/>
+      <c r="I139" s="91"/>
+      <c r="J139" s="91"/>
+      <c r="K139" s="91"/>
+      <c r="L139" s="76" t="s">
         <v>79</v>
       </c>
       <c r="M139" s="5">
@@ -9570,17 +9872,17 @@
       </c>
     </row>
     <row r="140" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="86"/>
-      <c r="C140" s="86"/>
-      <c r="D140" s="88"/>
-      <c r="E140" s="88"/>
-      <c r="F140" s="90"/>
-      <c r="G140" s="88"/>
-      <c r="H140" s="88"/>
-      <c r="I140" s="88"/>
-      <c r="J140" s="88"/>
-      <c r="K140" s="88"/>
-      <c r="L140" s="74"/>
+      <c r="B140" s="89"/>
+      <c r="C140" s="89"/>
+      <c r="D140" s="91"/>
+      <c r="E140" s="91"/>
+      <c r="F140" s="93"/>
+      <c r="G140" s="91"/>
+      <c r="H140" s="91"/>
+      <c r="I140" s="91"/>
+      <c r="J140" s="91"/>
+      <c r="K140" s="91"/>
+      <c r="L140" s="77"/>
       <c r="M140" s="12">
         <v>2</v>
       </c>
@@ -9594,17 +9896,17 @@
       </c>
     </row>
     <row r="141" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="86"/>
-      <c r="C141" s="86"/>
-      <c r="D141" s="88"/>
-      <c r="E141" s="88"/>
-      <c r="F141" s="90"/>
-      <c r="G141" s="88"/>
-      <c r="H141" s="88"/>
-      <c r="I141" s="88"/>
-      <c r="J141" s="88"/>
-      <c r="K141" s="88"/>
-      <c r="L141" s="74"/>
+      <c r="B141" s="89"/>
+      <c r="C141" s="89"/>
+      <c r="D141" s="91"/>
+      <c r="E141" s="91"/>
+      <c r="F141" s="93"/>
+      <c r="G141" s="91"/>
+      <c r="H141" s="91"/>
+      <c r="I141" s="91"/>
+      <c r="J141" s="91"/>
+      <c r="K141" s="91"/>
+      <c r="L141" s="77"/>
       <c r="M141" s="12">
         <v>3</v>
       </c>
@@ -9618,17 +9920,17 @@
       </c>
     </row>
     <row r="142" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="86"/>
-      <c r="C142" s="86"/>
-      <c r="D142" s="88"/>
-      <c r="E142" s="88"/>
-      <c r="F142" s="90"/>
-      <c r="G142" s="88"/>
-      <c r="H142" s="88"/>
-      <c r="I142" s="88"/>
-      <c r="J142" s="88"/>
-      <c r="K142" s="88"/>
-      <c r="L142" s="74"/>
+      <c r="B142" s="89"/>
+      <c r="C142" s="89"/>
+      <c r="D142" s="91"/>
+      <c r="E142" s="91"/>
+      <c r="F142" s="93"/>
+      <c r="G142" s="91"/>
+      <c r="H142" s="91"/>
+      <c r="I142" s="91"/>
+      <c r="J142" s="91"/>
+      <c r="K142" s="91"/>
+      <c r="L142" s="77"/>
       <c r="M142" s="12">
         <v>4</v>
       </c>
@@ -9642,17 +9944,17 @@
       </c>
     </row>
     <row r="143" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="86"/>
-      <c r="C143" s="86"/>
-      <c r="D143" s="88"/>
-      <c r="E143" s="88"/>
-      <c r="F143" s="90"/>
-      <c r="G143" s="88"/>
-      <c r="H143" s="88"/>
-      <c r="I143" s="88"/>
-      <c r="J143" s="88"/>
-      <c r="K143" s="88"/>
-      <c r="L143" s="74"/>
+      <c r="B143" s="89"/>
+      <c r="C143" s="89"/>
+      <c r="D143" s="91"/>
+      <c r="E143" s="91"/>
+      <c r="F143" s="93"/>
+      <c r="G143" s="91"/>
+      <c r="H143" s="91"/>
+      <c r="I143" s="91"/>
+      <c r="J143" s="91"/>
+      <c r="K143" s="91"/>
+      <c r="L143" s="77"/>
       <c r="M143" s="12">
         <v>5</v>
       </c>
@@ -9661,22 +9963,22 @@
         <v/>
       </c>
       <c r="O143" s="65" t="str">
-        <f>IF(N143="","Día de mes siguiente",VELEZ!F46)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N143="","",VELEZ!F46)</f>
+        <v/>
       </c>
     </row>
     <row r="144" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="86"/>
-      <c r="C144" s="86"/>
-      <c r="D144" s="88"/>
-      <c r="E144" s="88"/>
-      <c r="F144" s="90"/>
-      <c r="G144" s="88"/>
-      <c r="H144" s="88"/>
-      <c r="I144" s="88"/>
-      <c r="J144" s="88"/>
-      <c r="K144" s="88"/>
-      <c r="L144" s="73" t="s">
+      <c r="B144" s="89"/>
+      <c r="C144" s="89"/>
+      <c r="D144" s="91"/>
+      <c r="E144" s="91"/>
+      <c r="F144" s="93"/>
+      <c r="G144" s="91"/>
+      <c r="H144" s="91"/>
+      <c r="I144" s="91"/>
+      <c r="J144" s="91"/>
+      <c r="K144" s="91"/>
+      <c r="L144" s="76" t="s">
         <v>15</v>
       </c>
       <c r="M144" s="5">
@@ -9692,17 +9994,17 @@
       </c>
     </row>
     <row r="145" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="86"/>
-      <c r="C145" s="86"/>
-      <c r="D145" s="88"/>
-      <c r="E145" s="88"/>
-      <c r="F145" s="90"/>
-      <c r="G145" s="88"/>
-      <c r="H145" s="88"/>
-      <c r="I145" s="88"/>
-      <c r="J145" s="88"/>
-      <c r="K145" s="88"/>
-      <c r="L145" s="74"/>
+      <c r="B145" s="89"/>
+      <c r="C145" s="89"/>
+      <c r="D145" s="91"/>
+      <c r="E145" s="91"/>
+      <c r="F145" s="93"/>
+      <c r="G145" s="91"/>
+      <c r="H145" s="91"/>
+      <c r="I145" s="91"/>
+      <c r="J145" s="91"/>
+      <c r="K145" s="91"/>
+      <c r="L145" s="77"/>
       <c r="M145" s="12">
         <v>2</v>
       </c>
@@ -9716,17 +10018,17 @@
       </c>
     </row>
     <row r="146" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="86"/>
-      <c r="C146" s="86"/>
-      <c r="D146" s="88"/>
-      <c r="E146" s="88"/>
-      <c r="F146" s="90"/>
-      <c r="G146" s="88"/>
-      <c r="H146" s="88"/>
-      <c r="I146" s="88"/>
-      <c r="J146" s="88"/>
-      <c r="K146" s="88"/>
-      <c r="L146" s="74"/>
+      <c r="B146" s="89"/>
+      <c r="C146" s="89"/>
+      <c r="D146" s="91"/>
+      <c r="E146" s="91"/>
+      <c r="F146" s="93"/>
+      <c r="G146" s="91"/>
+      <c r="H146" s="91"/>
+      <c r="I146" s="91"/>
+      <c r="J146" s="91"/>
+      <c r="K146" s="91"/>
+      <c r="L146" s="77"/>
       <c r="M146" s="12">
         <v>3</v>
       </c>
@@ -9740,17 +10042,17 @@
       </c>
     </row>
     <row r="147" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="86"/>
-      <c r="C147" s="86"/>
-      <c r="D147" s="88"/>
-      <c r="E147" s="88"/>
-      <c r="F147" s="90"/>
-      <c r="G147" s="88"/>
-      <c r="H147" s="88"/>
-      <c r="I147" s="88"/>
-      <c r="J147" s="88"/>
-      <c r="K147" s="88"/>
-      <c r="L147" s="74"/>
+      <c r="B147" s="89"/>
+      <c r="C147" s="89"/>
+      <c r="D147" s="91"/>
+      <c r="E147" s="91"/>
+      <c r="F147" s="93"/>
+      <c r="G147" s="91"/>
+      <c r="H147" s="91"/>
+      <c r="I147" s="91"/>
+      <c r="J147" s="91"/>
+      <c r="K147" s="91"/>
+      <c r="L147" s="77"/>
       <c r="M147" s="12">
         <v>4</v>
       </c>
@@ -9764,17 +10066,17 @@
       </c>
     </row>
     <row r="148" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="86"/>
-      <c r="C148" s="86"/>
-      <c r="D148" s="88"/>
-      <c r="E148" s="88"/>
-      <c r="F148" s="90"/>
-      <c r="G148" s="88"/>
-      <c r="H148" s="88"/>
-      <c r="I148" s="88"/>
-      <c r="J148" s="88"/>
-      <c r="K148" s="88"/>
-      <c r="L148" s="74"/>
+      <c r="B148" s="89"/>
+      <c r="C148" s="89"/>
+      <c r="D148" s="91"/>
+      <c r="E148" s="91"/>
+      <c r="F148" s="93"/>
+      <c r="G148" s="91"/>
+      <c r="H148" s="91"/>
+      <c r="I148" s="91"/>
+      <c r="J148" s="91"/>
+      <c r="K148" s="91"/>
+      <c r="L148" s="77"/>
       <c r="M148" s="12">
         <v>5</v>
       </c>
@@ -9783,43 +10085,43 @@
         <v/>
       </c>
       <c r="O148" s="65" t="str">
-        <f>IF(N148="","Día de mes siguiente",VELEZ!F47)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N148="","",VELEZ!F47)</f>
+        <v/>
       </c>
     </row>
     <row r="149" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B149" s="80" t="s">
+      <c r="B149" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="C149" s="80" t="s">
+      <c r="C149" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="D149" s="77" t="s">
+      <c r="D149" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="E149" s="77" t="str">
+      <c r="E149" s="80" t="str">
         <f>E79</f>
         <v>MARZO</v>
       </c>
-      <c r="F149" s="89">
-        <v>1</v>
-      </c>
-      <c r="G149" s="91" t="s">
+      <c r="F149" s="92">
+        <v>1</v>
+      </c>
+      <c r="G149" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="H149" s="91" t="s">
+      <c r="H149" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="I149" s="91" t="s">
+      <c r="I149" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="J149" s="91" t="s">
+      <c r="J149" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="K149" s="91" t="s">
+      <c r="K149" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="L149" s="73" t="s">
+      <c r="L149" s="76" t="s">
         <v>80</v>
       </c>
       <c r="M149" s="5">
@@ -9835,65 +10137,65 @@
       </c>
     </row>
     <row r="150" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B150" s="86"/>
-      <c r="C150" s="86"/>
-      <c r="D150" s="88"/>
-      <c r="E150" s="88"/>
-      <c r="F150" s="90"/>
-      <c r="G150" s="88"/>
-      <c r="H150" s="88"/>
-      <c r="I150" s="88"/>
-      <c r="J150" s="88"/>
-      <c r="K150" s="88"/>
-      <c r="L150" s="74"/>
+      <c r="B150" s="89"/>
+      <c r="C150" s="89"/>
+      <c r="D150" s="91"/>
+      <c r="E150" s="91"/>
+      <c r="F150" s="93"/>
+      <c r="G150" s="91"/>
+      <c r="H150" s="91"/>
+      <c r="I150" s="91"/>
+      <c r="J150" s="91"/>
+      <c r="K150" s="91"/>
+      <c r="L150" s="77"/>
       <c r="M150" s="12">
         <v>2</v>
       </c>
       <c r="N150" s="12" t="str">
         <f>IF(MORALES!E12="","",MORALES!E12)</f>
-        <v/>
-      </c>
-      <c r="O150" s="70" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O150" s="70">
         <f>IF(N150="","",MORALES!F12)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B151" s="86"/>
-      <c r="C151" s="86"/>
-      <c r="D151" s="88"/>
-      <c r="E151" s="88"/>
-      <c r="F151" s="90"/>
-      <c r="G151" s="88"/>
-      <c r="H151" s="88"/>
-      <c r="I151" s="88"/>
-      <c r="J151" s="88"/>
-      <c r="K151" s="88"/>
-      <c r="L151" s="74"/>
+      <c r="B151" s="89"/>
+      <c r="C151" s="89"/>
+      <c r="D151" s="91"/>
+      <c r="E151" s="91"/>
+      <c r="F151" s="93"/>
+      <c r="G151" s="91"/>
+      <c r="H151" s="91"/>
+      <c r="I151" s="91"/>
+      <c r="J151" s="91"/>
+      <c r="K151" s="91"/>
+      <c r="L151" s="77"/>
       <c r="M151" s="12">
         <v>3</v>
       </c>
       <c r="N151" s="12" t="str">
         <f>IF(MORALES!E18="","",MORALES!E18)</f>
-        <v/>
-      </c>
-      <c r="O151" s="67" t="str">
+        <v>Ex.Sup.</v>
+      </c>
+      <c r="O151" s="67">
         <f>IF(N151="","",MORALES!F18)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B152" s="86"/>
-      <c r="C152" s="86"/>
-      <c r="D152" s="88"/>
-      <c r="E152" s="88"/>
-      <c r="F152" s="90"/>
-      <c r="G152" s="88"/>
-      <c r="H152" s="88"/>
-      <c r="I152" s="88"/>
-      <c r="J152" s="88"/>
-      <c r="K152" s="88"/>
-      <c r="L152" s="74"/>
+      <c r="B152" s="89"/>
+      <c r="C152" s="89"/>
+      <c r="D152" s="91"/>
+      <c r="E152" s="91"/>
+      <c r="F152" s="93"/>
+      <c r="G152" s="91"/>
+      <c r="H152" s="91"/>
+      <c r="I152" s="91"/>
+      <c r="J152" s="91"/>
+      <c r="K152" s="91"/>
+      <c r="L152" s="77"/>
       <c r="M152" s="12">
         <v>4</v>
       </c>
@@ -9907,17 +10209,17 @@
       </c>
     </row>
     <row r="153" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B153" s="86"/>
-      <c r="C153" s="86"/>
-      <c r="D153" s="88"/>
-      <c r="E153" s="88"/>
-      <c r="F153" s="90"/>
-      <c r="G153" s="88"/>
-      <c r="H153" s="88"/>
-      <c r="I153" s="88"/>
-      <c r="J153" s="88"/>
-      <c r="K153" s="88"/>
-      <c r="L153" s="74"/>
+      <c r="B153" s="89"/>
+      <c r="C153" s="89"/>
+      <c r="D153" s="91"/>
+      <c r="E153" s="91"/>
+      <c r="F153" s="93"/>
+      <c r="G153" s="91"/>
+      <c r="H153" s="91"/>
+      <c r="I153" s="91"/>
+      <c r="J153" s="91"/>
+      <c r="K153" s="91"/>
+      <c r="L153" s="77"/>
       <c r="M153" s="12">
         <v>5</v>
       </c>
@@ -9926,22 +10228,22 @@
         <v/>
       </c>
       <c r="O153" s="67" t="str">
-        <f>IF(N153="","Día de mes siguiente",MORALES!F30)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N153="","",MORALES!F30)</f>
+        <v/>
       </c>
     </row>
     <row r="154" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B154" s="86"/>
-      <c r="C154" s="86"/>
-      <c r="D154" s="88"/>
-      <c r="E154" s="88"/>
-      <c r="F154" s="90"/>
-      <c r="G154" s="88"/>
-      <c r="H154" s="88"/>
-      <c r="I154" s="88"/>
-      <c r="J154" s="88"/>
-      <c r="K154" s="88"/>
-      <c r="L154" s="75" t="s">
+      <c r="B154" s="89"/>
+      <c r="C154" s="89"/>
+      <c r="D154" s="91"/>
+      <c r="E154" s="91"/>
+      <c r="F154" s="93"/>
+      <c r="G154" s="91"/>
+      <c r="H154" s="91"/>
+      <c r="I154" s="91"/>
+      <c r="J154" s="91"/>
+      <c r="K154" s="91"/>
+      <c r="L154" s="78" t="s">
         <v>81</v>
       </c>
       <c r="M154" s="46">
@@ -9957,41 +10259,41 @@
       </c>
     </row>
     <row r="155" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B155" s="86"/>
-      <c r="C155" s="86"/>
-      <c r="D155" s="88"/>
-      <c r="E155" s="88"/>
-      <c r="F155" s="90"/>
-      <c r="G155" s="88"/>
-      <c r="H155" s="88"/>
-      <c r="I155" s="88"/>
-      <c r="J155" s="88"/>
-      <c r="K155" s="88"/>
-      <c r="L155" s="76"/>
+      <c r="B155" s="89"/>
+      <c r="C155" s="89"/>
+      <c r="D155" s="91"/>
+      <c r="E155" s="91"/>
+      <c r="F155" s="93"/>
+      <c r="G155" s="91"/>
+      <c r="H155" s="91"/>
+      <c r="I155" s="91"/>
+      <c r="J155" s="91"/>
+      <c r="K155" s="91"/>
+      <c r="L155" s="79"/>
       <c r="M155" s="19">
         <v>2</v>
       </c>
       <c r="N155" s="19" t="str">
         <f>IF(MORALES!E13="","",MORALES!E13)</f>
-        <v/>
-      </c>
-      <c r="O155" s="68" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O155" s="68">
         <f>IF(N155="","",MORALES!F13)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B156" s="86"/>
-      <c r="C156" s="86"/>
-      <c r="D156" s="88"/>
-      <c r="E156" s="88"/>
-      <c r="F156" s="90"/>
-      <c r="G156" s="88"/>
-      <c r="H156" s="88"/>
-      <c r="I156" s="88"/>
-      <c r="J156" s="88"/>
-      <c r="K156" s="88"/>
-      <c r="L156" s="76"/>
+      <c r="B156" s="89"/>
+      <c r="C156" s="89"/>
+      <c r="D156" s="91"/>
+      <c r="E156" s="91"/>
+      <c r="F156" s="93"/>
+      <c r="G156" s="91"/>
+      <c r="H156" s="91"/>
+      <c r="I156" s="91"/>
+      <c r="J156" s="91"/>
+      <c r="K156" s="91"/>
+      <c r="L156" s="79"/>
       <c r="M156" s="19">
         <v>3</v>
       </c>
@@ -10005,17 +10307,17 @@
       </c>
     </row>
     <row r="157" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B157" s="86"/>
-      <c r="C157" s="86"/>
-      <c r="D157" s="88"/>
-      <c r="E157" s="88"/>
-      <c r="F157" s="90"/>
-      <c r="G157" s="88"/>
-      <c r="H157" s="88"/>
-      <c r="I157" s="88"/>
-      <c r="J157" s="88"/>
-      <c r="K157" s="88"/>
-      <c r="L157" s="76"/>
+      <c r="B157" s="89"/>
+      <c r="C157" s="89"/>
+      <c r="D157" s="91"/>
+      <c r="E157" s="91"/>
+      <c r="F157" s="93"/>
+      <c r="G157" s="91"/>
+      <c r="H157" s="91"/>
+      <c r="I157" s="91"/>
+      <c r="J157" s="91"/>
+      <c r="K157" s="91"/>
+      <c r="L157" s="79"/>
       <c r="M157" s="19">
         <v>4</v>
       </c>
@@ -10029,17 +10331,17 @@
       </c>
     </row>
     <row r="158" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B158" s="86"/>
-      <c r="C158" s="86"/>
-      <c r="D158" s="88"/>
-      <c r="E158" s="88"/>
-      <c r="F158" s="90"/>
-      <c r="G158" s="88"/>
-      <c r="H158" s="88"/>
-      <c r="I158" s="88"/>
-      <c r="J158" s="88"/>
-      <c r="K158" s="88"/>
-      <c r="L158" s="76"/>
+      <c r="B158" s="89"/>
+      <c r="C158" s="89"/>
+      <c r="D158" s="91"/>
+      <c r="E158" s="91"/>
+      <c r="F158" s="93"/>
+      <c r="G158" s="91"/>
+      <c r="H158" s="91"/>
+      <c r="I158" s="91"/>
+      <c r="J158" s="91"/>
+      <c r="K158" s="91"/>
+      <c r="L158" s="79"/>
       <c r="M158" s="19">
         <v>5</v>
       </c>
@@ -10048,22 +10350,22 @@
         <v/>
       </c>
       <c r="O158" s="68" t="str">
-        <f>IF(N158="","Día de mes siguiente",MORALES!F31)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N158="","",MORALES!F31)</f>
+        <v/>
       </c>
     </row>
     <row r="159" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B159" s="86"/>
-      <c r="C159" s="86"/>
-      <c r="D159" s="88"/>
-      <c r="E159" s="88"/>
-      <c r="F159" s="90"/>
-      <c r="G159" s="88"/>
-      <c r="H159" s="88"/>
-      <c r="I159" s="88"/>
-      <c r="J159" s="88"/>
-      <c r="K159" s="88"/>
-      <c r="L159" s="73" t="s">
+      <c r="B159" s="89"/>
+      <c r="C159" s="89"/>
+      <c r="D159" s="91"/>
+      <c r="E159" s="91"/>
+      <c r="F159" s="93"/>
+      <c r="G159" s="91"/>
+      <c r="H159" s="91"/>
+      <c r="I159" s="91"/>
+      <c r="J159" s="91"/>
+      <c r="K159" s="91"/>
+      <c r="L159" s="76" t="s">
         <v>82</v>
       </c>
       <c r="M159" s="5">
@@ -10079,65 +10381,65 @@
       </c>
     </row>
     <row r="160" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B160" s="86"/>
-      <c r="C160" s="86"/>
-      <c r="D160" s="88"/>
-      <c r="E160" s="88"/>
-      <c r="F160" s="90"/>
-      <c r="G160" s="88"/>
-      <c r="H160" s="88"/>
-      <c r="I160" s="88"/>
-      <c r="J160" s="88"/>
-      <c r="K160" s="88"/>
-      <c r="L160" s="74"/>
+      <c r="B160" s="89"/>
+      <c r="C160" s="89"/>
+      <c r="D160" s="91"/>
+      <c r="E160" s="91"/>
+      <c r="F160" s="93"/>
+      <c r="G160" s="91"/>
+      <c r="H160" s="91"/>
+      <c r="I160" s="91"/>
+      <c r="J160" s="91"/>
+      <c r="K160" s="91"/>
+      <c r="L160" s="77"/>
       <c r="M160" s="12">
         <v>2</v>
       </c>
       <c r="N160" s="19" t="str">
         <f>IF(MORALES!E14="","",MORALES!E14)</f>
-        <v/>
-      </c>
-      <c r="O160" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O160" s="66">
         <f>IF(N160="","",MORALES!F14)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B161" s="86"/>
-      <c r="C161" s="86"/>
-      <c r="D161" s="88"/>
-      <c r="E161" s="88"/>
-      <c r="F161" s="90"/>
-      <c r="G161" s="88"/>
-      <c r="H161" s="88"/>
-      <c r="I161" s="88"/>
-      <c r="J161" s="88"/>
-      <c r="K161" s="88"/>
-      <c r="L161" s="74"/>
+      <c r="B161" s="89"/>
+      <c r="C161" s="89"/>
+      <c r="D161" s="91"/>
+      <c r="E161" s="91"/>
+      <c r="F161" s="93"/>
+      <c r="G161" s="91"/>
+      <c r="H161" s="91"/>
+      <c r="I161" s="91"/>
+      <c r="J161" s="91"/>
+      <c r="K161" s="91"/>
+      <c r="L161" s="77"/>
       <c r="M161" s="12">
         <v>3</v>
       </c>
       <c r="N161" s="19" t="str">
         <f>IF(MORALES!E20="","",MORALES!E20)</f>
-        <v/>
-      </c>
-      <c r="O161" s="65" t="str">
+        <v>Ex.Sup.</v>
+      </c>
+      <c r="O161" s="65">
         <f>IF(N161="","",MORALES!F20)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B162" s="86"/>
-      <c r="C162" s="86"/>
-      <c r="D162" s="88"/>
-      <c r="E162" s="88"/>
-      <c r="F162" s="90"/>
-      <c r="G162" s="88"/>
-      <c r="H162" s="88"/>
-      <c r="I162" s="88"/>
-      <c r="J162" s="88"/>
-      <c r="K162" s="88"/>
-      <c r="L162" s="74"/>
+      <c r="B162" s="89"/>
+      <c r="C162" s="89"/>
+      <c r="D162" s="91"/>
+      <c r="E162" s="91"/>
+      <c r="F162" s="93"/>
+      <c r="G162" s="91"/>
+      <c r="H162" s="91"/>
+      <c r="I162" s="91"/>
+      <c r="J162" s="91"/>
+      <c r="K162" s="91"/>
+      <c r="L162" s="77"/>
       <c r="M162" s="12">
         <v>4</v>
       </c>
@@ -10151,17 +10453,17 @@
       </c>
     </row>
     <row r="163" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B163" s="86"/>
-      <c r="C163" s="86"/>
-      <c r="D163" s="88"/>
-      <c r="E163" s="88"/>
-      <c r="F163" s="90"/>
-      <c r="G163" s="88"/>
-      <c r="H163" s="88"/>
-      <c r="I163" s="88"/>
-      <c r="J163" s="88"/>
-      <c r="K163" s="88"/>
-      <c r="L163" s="74"/>
+      <c r="B163" s="89"/>
+      <c r="C163" s="89"/>
+      <c r="D163" s="91"/>
+      <c r="E163" s="91"/>
+      <c r="F163" s="93"/>
+      <c r="G163" s="91"/>
+      <c r="H163" s="91"/>
+      <c r="I163" s="91"/>
+      <c r="J163" s="91"/>
+      <c r="K163" s="91"/>
+      <c r="L163" s="77"/>
       <c r="M163" s="12">
         <v>5</v>
       </c>
@@ -10170,22 +10472,22 @@
         <v/>
       </c>
       <c r="O163" s="65" t="str">
-        <f>IF(N163="","Día de mes siguiente",MORALES!F32)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N163="","",MORALES!F32)</f>
+        <v/>
       </c>
     </row>
     <row r="164" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B164" s="86"/>
-      <c r="C164" s="86"/>
-      <c r="D164" s="88"/>
-      <c r="E164" s="88"/>
-      <c r="F164" s="90"/>
-      <c r="G164" s="88"/>
-      <c r="H164" s="88"/>
-      <c r="I164" s="88"/>
-      <c r="J164" s="88"/>
-      <c r="K164" s="88"/>
-      <c r="L164" s="73" t="s">
+      <c r="B164" s="89"/>
+      <c r="C164" s="89"/>
+      <c r="D164" s="91"/>
+      <c r="E164" s="91"/>
+      <c r="F164" s="93"/>
+      <c r="G164" s="91"/>
+      <c r="H164" s="91"/>
+      <c r="I164" s="91"/>
+      <c r="J164" s="91"/>
+      <c r="K164" s="91"/>
+      <c r="L164" s="76" t="s">
         <v>83</v>
       </c>
       <c r="M164" s="5">
@@ -10201,41 +10503,41 @@
       </c>
     </row>
     <row r="165" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B165" s="86"/>
-      <c r="C165" s="86"/>
-      <c r="D165" s="88"/>
-      <c r="E165" s="88"/>
-      <c r="F165" s="90"/>
-      <c r="G165" s="88"/>
-      <c r="H165" s="88"/>
-      <c r="I165" s="88"/>
-      <c r="J165" s="88"/>
-      <c r="K165" s="88"/>
-      <c r="L165" s="74"/>
+      <c r="B165" s="89"/>
+      <c r="C165" s="89"/>
+      <c r="D165" s="91"/>
+      <c r="E165" s="91"/>
+      <c r="F165" s="93"/>
+      <c r="G165" s="91"/>
+      <c r="H165" s="91"/>
+      <c r="I165" s="91"/>
+      <c r="J165" s="91"/>
+      <c r="K165" s="91"/>
+      <c r="L165" s="77"/>
       <c r="M165" s="12">
         <v>2</v>
       </c>
       <c r="N165" s="19" t="str">
         <f>IF(MORALES!E15="","",MORALES!E15)</f>
-        <v/>
-      </c>
-      <c r="O165" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O165" s="66">
         <f>IF(N165="","",MORALES!F15)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B166" s="86"/>
-      <c r="C166" s="86"/>
-      <c r="D166" s="88"/>
-      <c r="E166" s="88"/>
-      <c r="F166" s="90"/>
-      <c r="G166" s="88"/>
-      <c r="H166" s="88"/>
-      <c r="I166" s="88"/>
-      <c r="J166" s="88"/>
-      <c r="K166" s="88"/>
-      <c r="L166" s="74"/>
+      <c r="B166" s="89"/>
+      <c r="C166" s="89"/>
+      <c r="D166" s="91"/>
+      <c r="E166" s="91"/>
+      <c r="F166" s="93"/>
+      <c r="G166" s="91"/>
+      <c r="H166" s="91"/>
+      <c r="I166" s="91"/>
+      <c r="J166" s="91"/>
+      <c r="K166" s="91"/>
+      <c r="L166" s="77"/>
       <c r="M166" s="12">
         <v>3</v>
       </c>
@@ -10249,17 +10551,17 @@
       </c>
     </row>
     <row r="167" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B167" s="86"/>
-      <c r="C167" s="86"/>
-      <c r="D167" s="88"/>
-      <c r="E167" s="88"/>
-      <c r="F167" s="90"/>
-      <c r="G167" s="88"/>
-      <c r="H167" s="88"/>
-      <c r="I167" s="88"/>
-      <c r="J167" s="88"/>
-      <c r="K167" s="88"/>
-      <c r="L167" s="74"/>
+      <c r="B167" s="89"/>
+      <c r="C167" s="89"/>
+      <c r="D167" s="91"/>
+      <c r="E167" s="91"/>
+      <c r="F167" s="93"/>
+      <c r="G167" s="91"/>
+      <c r="H167" s="91"/>
+      <c r="I167" s="91"/>
+      <c r="J167" s="91"/>
+      <c r="K167" s="91"/>
+      <c r="L167" s="77"/>
       <c r="M167" s="12">
         <v>4</v>
       </c>
@@ -10273,17 +10575,17 @@
       </c>
     </row>
     <row r="168" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B168" s="86"/>
-      <c r="C168" s="86"/>
-      <c r="D168" s="88"/>
-      <c r="E168" s="88"/>
-      <c r="F168" s="90"/>
-      <c r="G168" s="88"/>
-      <c r="H168" s="88"/>
-      <c r="I168" s="88"/>
-      <c r="J168" s="88"/>
-      <c r="K168" s="88"/>
-      <c r="L168" s="74"/>
+      <c r="B168" s="89"/>
+      <c r="C168" s="89"/>
+      <c r="D168" s="91"/>
+      <c r="E168" s="91"/>
+      <c r="F168" s="93"/>
+      <c r="G168" s="91"/>
+      <c r="H168" s="91"/>
+      <c r="I168" s="91"/>
+      <c r="J168" s="91"/>
+      <c r="K168" s="91"/>
+      <c r="L168" s="77"/>
       <c r="M168" s="12">
         <v>5</v>
       </c>
@@ -10292,22 +10594,22 @@
         <v/>
       </c>
       <c r="O168" s="65" t="str">
-        <f>IF(N168="","Día de mes siguiente",MORALES!F33)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N168="","",MORALES!F33)</f>
+        <v/>
       </c>
     </row>
     <row r="169" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B169" s="86"/>
-      <c r="C169" s="86"/>
-      <c r="D169" s="88"/>
-      <c r="E169" s="88"/>
-      <c r="F169" s="90"/>
-      <c r="G169" s="88"/>
-      <c r="H169" s="88"/>
-      <c r="I169" s="88"/>
-      <c r="J169" s="88"/>
-      <c r="K169" s="88"/>
-      <c r="L169" s="73" t="s">
+      <c r="B169" s="89"/>
+      <c r="C169" s="89"/>
+      <c r="D169" s="91"/>
+      <c r="E169" s="91"/>
+      <c r="F169" s="93"/>
+      <c r="G169" s="91"/>
+      <c r="H169" s="91"/>
+      <c r="I169" s="91"/>
+      <c r="J169" s="91"/>
+      <c r="K169" s="91"/>
+      <c r="L169" s="76" t="s">
         <v>84</v>
       </c>
       <c r="M169" s="5">
@@ -10323,41 +10625,41 @@
       </c>
     </row>
     <row r="170" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B170" s="86"/>
-      <c r="C170" s="86"/>
-      <c r="D170" s="88"/>
-      <c r="E170" s="88"/>
-      <c r="F170" s="90"/>
-      <c r="G170" s="88"/>
-      <c r="H170" s="88"/>
-      <c r="I170" s="88"/>
-      <c r="J170" s="88"/>
-      <c r="K170" s="88"/>
-      <c r="L170" s="74"/>
+      <c r="B170" s="89"/>
+      <c r="C170" s="89"/>
+      <c r="D170" s="91"/>
+      <c r="E170" s="91"/>
+      <c r="F170" s="93"/>
+      <c r="G170" s="91"/>
+      <c r="H170" s="91"/>
+      <c r="I170" s="91"/>
+      <c r="J170" s="91"/>
+      <c r="K170" s="91"/>
+      <c r="L170" s="77"/>
       <c r="M170" s="12">
         <v>2</v>
       </c>
       <c r="N170" s="19" t="str">
         <f>IF(MORALES!E16="","",MORALES!E16)</f>
-        <v/>
-      </c>
-      <c r="O170" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O170" s="66">
         <f>IF(N170="","",MORALES!F16)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B171" s="86"/>
-      <c r="C171" s="86"/>
-      <c r="D171" s="88"/>
-      <c r="E171" s="88"/>
-      <c r="F171" s="90"/>
-      <c r="G171" s="88"/>
-      <c r="H171" s="88"/>
-      <c r="I171" s="88"/>
-      <c r="J171" s="88"/>
-      <c r="K171" s="88"/>
-      <c r="L171" s="74"/>
+      <c r="B171" s="89"/>
+      <c r="C171" s="89"/>
+      <c r="D171" s="91"/>
+      <c r="E171" s="91"/>
+      <c r="F171" s="93"/>
+      <c r="G171" s="91"/>
+      <c r="H171" s="91"/>
+      <c r="I171" s="91"/>
+      <c r="J171" s="91"/>
+      <c r="K171" s="91"/>
+      <c r="L171" s="77"/>
       <c r="M171" s="12">
         <v>3</v>
       </c>
@@ -10371,17 +10673,17 @@
       </c>
     </row>
     <row r="172" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B172" s="86"/>
-      <c r="C172" s="86"/>
-      <c r="D172" s="88"/>
-      <c r="E172" s="88"/>
-      <c r="F172" s="90"/>
-      <c r="G172" s="88"/>
-      <c r="H172" s="88"/>
-      <c r="I172" s="88"/>
-      <c r="J172" s="88"/>
-      <c r="K172" s="88"/>
-      <c r="L172" s="74"/>
+      <c r="B172" s="89"/>
+      <c r="C172" s="89"/>
+      <c r="D172" s="91"/>
+      <c r="E172" s="91"/>
+      <c r="F172" s="93"/>
+      <c r="G172" s="91"/>
+      <c r="H172" s="91"/>
+      <c r="I172" s="91"/>
+      <c r="J172" s="91"/>
+      <c r="K172" s="91"/>
+      <c r="L172" s="77"/>
       <c r="M172" s="12">
         <v>4</v>
       </c>
@@ -10395,17 +10697,17 @@
       </c>
     </row>
     <row r="173" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B173" s="86"/>
-      <c r="C173" s="86"/>
-      <c r="D173" s="88"/>
-      <c r="E173" s="88"/>
-      <c r="F173" s="90"/>
-      <c r="G173" s="88"/>
-      <c r="H173" s="88"/>
-      <c r="I173" s="88"/>
-      <c r="J173" s="88"/>
-      <c r="K173" s="88"/>
-      <c r="L173" s="74"/>
+      <c r="B173" s="89"/>
+      <c r="C173" s="89"/>
+      <c r="D173" s="91"/>
+      <c r="E173" s="91"/>
+      <c r="F173" s="93"/>
+      <c r="G173" s="91"/>
+      <c r="H173" s="91"/>
+      <c r="I173" s="91"/>
+      <c r="J173" s="91"/>
+      <c r="K173" s="91"/>
+      <c r="L173" s="77"/>
       <c r="M173" s="12">
         <v>5</v>
       </c>
@@ -10414,22 +10716,22 @@
         <v/>
       </c>
       <c r="O173" s="65" t="str">
-        <f>IF(N173="","Día de mes siguiente",MORALES!F34)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N173="","",MORALES!F34)</f>
+        <v/>
       </c>
     </row>
     <row r="174" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B174" s="86"/>
-      <c r="C174" s="86"/>
-      <c r="D174" s="88"/>
-      <c r="E174" s="88"/>
-      <c r="F174" s="90"/>
-      <c r="G174" s="88"/>
-      <c r="H174" s="88"/>
-      <c r="I174" s="88"/>
-      <c r="J174" s="88"/>
-      <c r="K174" s="88"/>
-      <c r="L174" s="73" t="s">
+      <c r="B174" s="89"/>
+      <c r="C174" s="89"/>
+      <c r="D174" s="91"/>
+      <c r="E174" s="91"/>
+      <c r="F174" s="93"/>
+      <c r="G174" s="91"/>
+      <c r="H174" s="91"/>
+      <c r="I174" s="91"/>
+      <c r="J174" s="91"/>
+      <c r="K174" s="91"/>
+      <c r="L174" s="76" t="s">
         <v>85</v>
       </c>
       <c r="M174" s="5">
@@ -10445,65 +10747,65 @@
       </c>
     </row>
     <row r="175" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B175" s="86"/>
-      <c r="C175" s="86"/>
-      <c r="D175" s="88"/>
-      <c r="E175" s="88"/>
-      <c r="F175" s="90"/>
-      <c r="G175" s="88"/>
-      <c r="H175" s="88"/>
-      <c r="I175" s="88"/>
-      <c r="J175" s="88"/>
-      <c r="K175" s="88"/>
-      <c r="L175" s="74"/>
+      <c r="B175" s="89"/>
+      <c r="C175" s="89"/>
+      <c r="D175" s="91"/>
+      <c r="E175" s="91"/>
+      <c r="F175" s="93"/>
+      <c r="G175" s="91"/>
+      <c r="H175" s="91"/>
+      <c r="I175" s="91"/>
+      <c r="J175" s="91"/>
+      <c r="K175" s="91"/>
+      <c r="L175" s="77"/>
       <c r="M175" s="12">
         <v>2</v>
       </c>
       <c r="N175" s="19" t="str">
         <f>IF(MORALES!E17="","",MORALES!E17)</f>
-        <v/>
-      </c>
-      <c r="O175" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O175" s="66">
         <f>IF(N175="","",MORALES!F17)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B176" s="86"/>
-      <c r="C176" s="86"/>
-      <c r="D176" s="88"/>
-      <c r="E176" s="88"/>
-      <c r="F176" s="90"/>
-      <c r="G176" s="88"/>
-      <c r="H176" s="88"/>
-      <c r="I176" s="88"/>
-      <c r="J176" s="88"/>
-      <c r="K176" s="88"/>
-      <c r="L176" s="74"/>
+      <c r="B176" s="89"/>
+      <c r="C176" s="89"/>
+      <c r="D176" s="91"/>
+      <c r="E176" s="91"/>
+      <c r="F176" s="93"/>
+      <c r="G176" s="91"/>
+      <c r="H176" s="91"/>
+      <c r="I176" s="91"/>
+      <c r="J176" s="91"/>
+      <c r="K176" s="91"/>
+      <c r="L176" s="77"/>
       <c r="M176" s="12">
         <v>3</v>
       </c>
       <c r="N176" s="19" t="str">
         <f>IF(MORALES!E23="","",MORALES!E23)</f>
-        <v/>
-      </c>
-      <c r="O176" s="65" t="str">
+        <v>Ex.Sup.</v>
+      </c>
+      <c r="O176" s="65">
         <f>IF(N176="","",MORALES!F23)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B177" s="86"/>
-      <c r="C177" s="86"/>
-      <c r="D177" s="88"/>
-      <c r="E177" s="88"/>
-      <c r="F177" s="90"/>
-      <c r="G177" s="88"/>
-      <c r="H177" s="88"/>
-      <c r="I177" s="88"/>
-      <c r="J177" s="88"/>
-      <c r="K177" s="88"/>
-      <c r="L177" s="74"/>
+      <c r="B177" s="89"/>
+      <c r="C177" s="89"/>
+      <c r="D177" s="91"/>
+      <c r="E177" s="91"/>
+      <c r="F177" s="93"/>
+      <c r="G177" s="91"/>
+      <c r="H177" s="91"/>
+      <c r="I177" s="91"/>
+      <c r="J177" s="91"/>
+      <c r="K177" s="91"/>
+      <c r="L177" s="77"/>
       <c r="M177" s="12">
         <v>4</v>
       </c>
@@ -10517,17 +10819,17 @@
       </c>
     </row>
     <row r="178" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B178" s="87"/>
-      <c r="C178" s="87"/>
-      <c r="D178" s="92"/>
-      <c r="E178" s="92"/>
-      <c r="F178" s="93"/>
-      <c r="G178" s="92"/>
-      <c r="H178" s="92"/>
-      <c r="I178" s="92"/>
-      <c r="J178" s="92"/>
-      <c r="K178" s="92"/>
-      <c r="L178" s="74"/>
+      <c r="B178" s="90"/>
+      <c r="C178" s="90"/>
+      <c r="D178" s="95"/>
+      <c r="E178" s="95"/>
+      <c r="F178" s="96"/>
+      <c r="G178" s="95"/>
+      <c r="H178" s="95"/>
+      <c r="I178" s="95"/>
+      <c r="J178" s="95"/>
+      <c r="K178" s="95"/>
+      <c r="L178" s="77"/>
       <c r="M178" s="12">
         <v>5</v>
       </c>
@@ -10536,43 +10838,43 @@
         <v/>
       </c>
       <c r="O178" s="65" t="str">
-        <f>IF(N178="","Día de mes siguiente",MORALES!F35)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N178="","",MORALES!F35)</f>
+        <v/>
       </c>
     </row>
     <row r="179" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B179" s="80" t="s">
+      <c r="B179" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="C179" s="80" t="s">
+      <c r="C179" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="D179" s="77" t="s">
+      <c r="D179" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="E179" s="77" t="str">
+      <c r="E179" s="80" t="str">
         <f>E149</f>
         <v>MARZO</v>
       </c>
-      <c r="F179" s="83">
-        <v>1</v>
-      </c>
-      <c r="G179" s="77" t="s">
+      <c r="F179" s="86">
+        <v>1</v>
+      </c>
+      <c r="G179" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="H179" s="77" t="s">
+      <c r="H179" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="I179" s="77" t="s">
+      <c r="I179" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="J179" s="77" t="s">
+      <c r="J179" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="K179" s="77" t="s">
+      <c r="K179" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="L179" s="73" t="s">
+      <c r="L179" s="76" t="s">
         <v>96</v>
       </c>
       <c r="M179" s="13">
@@ -10588,41 +10890,41 @@
       </c>
     </row>
     <row r="180" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B180" s="81"/>
-      <c r="C180" s="81"/>
-      <c r="D180" s="78"/>
-      <c r="E180" s="78"/>
-      <c r="F180" s="84"/>
-      <c r="G180" s="78"/>
-      <c r="H180" s="78"/>
-      <c r="I180" s="78"/>
-      <c r="J180" s="78"/>
-      <c r="K180" s="78"/>
-      <c r="L180" s="74"/>
+      <c r="B180" s="84"/>
+      <c r="C180" s="84"/>
+      <c r="D180" s="81"/>
+      <c r="E180" s="81"/>
+      <c r="F180" s="87"/>
+      <c r="G180" s="81"/>
+      <c r="H180" s="81"/>
+      <c r="I180" s="81"/>
+      <c r="J180" s="81"/>
+      <c r="K180" s="81"/>
+      <c r="L180" s="77"/>
       <c r="M180" s="12">
         <v>2</v>
       </c>
       <c r="N180" s="12" t="str">
         <f>IF(CASTRO!E13="","",CASTRO!E13)</f>
-        <v/>
-      </c>
-      <c r="O180" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O180" s="66">
         <f>IF(N180="","",CASTRO!F13)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B181" s="81"/>
-      <c r="C181" s="81"/>
-      <c r="D181" s="78"/>
-      <c r="E181" s="78"/>
-      <c r="F181" s="84"/>
-      <c r="G181" s="78"/>
-      <c r="H181" s="78"/>
-      <c r="I181" s="78"/>
-      <c r="J181" s="78"/>
-      <c r="K181" s="78"/>
-      <c r="L181" s="74"/>
+      <c r="B181" s="84"/>
+      <c r="C181" s="84"/>
+      <c r="D181" s="81"/>
+      <c r="E181" s="81"/>
+      <c r="F181" s="87"/>
+      <c r="G181" s="81"/>
+      <c r="H181" s="81"/>
+      <c r="I181" s="81"/>
+      <c r="J181" s="81"/>
+      <c r="K181" s="81"/>
+      <c r="L181" s="77"/>
       <c r="M181" s="12">
         <v>3</v>
       </c>
@@ -10636,17 +10938,17 @@
       </c>
     </row>
     <row r="182" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B182" s="81"/>
-      <c r="C182" s="81"/>
-      <c r="D182" s="78"/>
-      <c r="E182" s="78"/>
-      <c r="F182" s="84"/>
-      <c r="G182" s="78"/>
-      <c r="H182" s="78"/>
-      <c r="I182" s="78"/>
-      <c r="J182" s="78"/>
-      <c r="K182" s="78"/>
-      <c r="L182" s="74"/>
+      <c r="B182" s="84"/>
+      <c r="C182" s="84"/>
+      <c r="D182" s="81"/>
+      <c r="E182" s="81"/>
+      <c r="F182" s="87"/>
+      <c r="G182" s="81"/>
+      <c r="H182" s="81"/>
+      <c r="I182" s="81"/>
+      <c r="J182" s="81"/>
+      <c r="K182" s="81"/>
+      <c r="L182" s="77"/>
       <c r="M182" s="12">
         <v>4</v>
       </c>
@@ -10660,17 +10962,17 @@
       </c>
     </row>
     <row r="183" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B183" s="81"/>
-      <c r="C183" s="81"/>
-      <c r="D183" s="78"/>
-      <c r="E183" s="78"/>
-      <c r="F183" s="84"/>
-      <c r="G183" s="78"/>
-      <c r="H183" s="78"/>
-      <c r="I183" s="78"/>
-      <c r="J183" s="78"/>
-      <c r="K183" s="78"/>
-      <c r="L183" s="74"/>
+      <c r="B183" s="84"/>
+      <c r="C183" s="84"/>
+      <c r="D183" s="81"/>
+      <c r="E183" s="81"/>
+      <c r="F183" s="87"/>
+      <c r="G183" s="81"/>
+      <c r="H183" s="81"/>
+      <c r="I183" s="81"/>
+      <c r="J183" s="81"/>
+      <c r="K183" s="81"/>
+      <c r="L183" s="77"/>
       <c r="M183" s="12">
         <v>5</v>
       </c>
@@ -10679,22 +10981,22 @@
         <v/>
       </c>
       <c r="O183" s="67" t="str">
-        <f>IF(N183="","Día de mes siguiente",CASTRO!F34)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N183="","",CASTRO!F34)</f>
+        <v/>
       </c>
     </row>
     <row r="184" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B184" s="81"/>
-      <c r="C184" s="81"/>
-      <c r="D184" s="78"/>
-      <c r="E184" s="78"/>
-      <c r="F184" s="84"/>
-      <c r="G184" s="78"/>
-      <c r="H184" s="78"/>
-      <c r="I184" s="78"/>
-      <c r="J184" s="78"/>
-      <c r="K184" s="78"/>
-      <c r="L184" s="75" t="s">
+      <c r="B184" s="84"/>
+      <c r="C184" s="84"/>
+      <c r="D184" s="81"/>
+      <c r="E184" s="81"/>
+      <c r="F184" s="87"/>
+      <c r="G184" s="81"/>
+      <c r="H184" s="81"/>
+      <c r="I184" s="81"/>
+      <c r="J184" s="81"/>
+      <c r="K184" s="81"/>
+      <c r="L184" s="78" t="s">
         <v>97</v>
       </c>
       <c r="M184" s="20">
@@ -10710,41 +11012,41 @@
       </c>
     </row>
     <row r="185" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B185" s="81"/>
-      <c r="C185" s="81"/>
-      <c r="D185" s="78"/>
-      <c r="E185" s="78"/>
-      <c r="F185" s="84"/>
-      <c r="G185" s="78"/>
-      <c r="H185" s="78"/>
-      <c r="I185" s="78"/>
-      <c r="J185" s="78"/>
-      <c r="K185" s="78"/>
-      <c r="L185" s="76"/>
+      <c r="B185" s="84"/>
+      <c r="C185" s="84"/>
+      <c r="D185" s="81"/>
+      <c r="E185" s="81"/>
+      <c r="F185" s="87"/>
+      <c r="G185" s="81"/>
+      <c r="H185" s="81"/>
+      <c r="I185" s="81"/>
+      <c r="J185" s="81"/>
+      <c r="K185" s="81"/>
+      <c r="L185" s="79"/>
       <c r="M185" s="19">
         <v>2</v>
       </c>
       <c r="N185" s="19" t="str">
         <f>IF(CASTRO!E14="","",CASTRO!E14)</f>
-        <v/>
-      </c>
-      <c r="O185" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O185" s="66">
         <f>IF(N185="","",CASTRO!F14)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B186" s="81"/>
-      <c r="C186" s="81"/>
-      <c r="D186" s="78"/>
-      <c r="E186" s="78"/>
-      <c r="F186" s="84"/>
-      <c r="G186" s="78"/>
-      <c r="H186" s="78"/>
-      <c r="I186" s="78"/>
-      <c r="J186" s="78"/>
-      <c r="K186" s="78"/>
-      <c r="L186" s="76"/>
+      <c r="B186" s="84"/>
+      <c r="C186" s="84"/>
+      <c r="D186" s="81"/>
+      <c r="E186" s="81"/>
+      <c r="F186" s="87"/>
+      <c r="G186" s="81"/>
+      <c r="H186" s="81"/>
+      <c r="I186" s="81"/>
+      <c r="J186" s="81"/>
+      <c r="K186" s="81"/>
+      <c r="L186" s="79"/>
       <c r="M186" s="19">
         <v>3</v>
       </c>
@@ -10758,17 +11060,17 @@
       </c>
     </row>
     <row r="187" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B187" s="81"/>
-      <c r="C187" s="81"/>
-      <c r="D187" s="78"/>
-      <c r="E187" s="78"/>
-      <c r="F187" s="84"/>
-      <c r="G187" s="78"/>
-      <c r="H187" s="78"/>
-      <c r="I187" s="78"/>
-      <c r="J187" s="78"/>
-      <c r="K187" s="78"/>
-      <c r="L187" s="76"/>
+      <c r="B187" s="84"/>
+      <c r="C187" s="84"/>
+      <c r="D187" s="81"/>
+      <c r="E187" s="81"/>
+      <c r="F187" s="87"/>
+      <c r="G187" s="81"/>
+      <c r="H187" s="81"/>
+      <c r="I187" s="81"/>
+      <c r="J187" s="81"/>
+      <c r="K187" s="81"/>
+      <c r="L187" s="79"/>
       <c r="M187" s="19">
         <v>4</v>
       </c>
@@ -10782,17 +11084,17 @@
       </c>
     </row>
     <row r="188" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B188" s="81"/>
-      <c r="C188" s="81"/>
-      <c r="D188" s="78"/>
-      <c r="E188" s="78"/>
-      <c r="F188" s="84"/>
-      <c r="G188" s="78"/>
-      <c r="H188" s="78"/>
-      <c r="I188" s="78"/>
-      <c r="J188" s="78"/>
-      <c r="K188" s="78"/>
-      <c r="L188" s="76"/>
+      <c r="B188" s="84"/>
+      <c r="C188" s="84"/>
+      <c r="D188" s="81"/>
+      <c r="E188" s="81"/>
+      <c r="F188" s="87"/>
+      <c r="G188" s="81"/>
+      <c r="H188" s="81"/>
+      <c r="I188" s="81"/>
+      <c r="J188" s="81"/>
+      <c r="K188" s="81"/>
+      <c r="L188" s="79"/>
       <c r="M188" s="19">
         <v>5</v>
       </c>
@@ -10801,22 +11103,22 @@
         <v/>
       </c>
       <c r="O188" s="68" t="str">
-        <f>IF(N188="","Día de mes siguiente",CASTRO!F35)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N188="","",CASTRO!F35)</f>
+        <v/>
       </c>
     </row>
     <row r="189" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B189" s="81"/>
-      <c r="C189" s="81"/>
-      <c r="D189" s="78"/>
-      <c r="E189" s="78"/>
-      <c r="F189" s="84"/>
-      <c r="G189" s="78"/>
-      <c r="H189" s="78"/>
-      <c r="I189" s="78"/>
-      <c r="J189" s="78"/>
-      <c r="K189" s="78"/>
-      <c r="L189" s="73" t="s">
+      <c r="B189" s="84"/>
+      <c r="C189" s="84"/>
+      <c r="D189" s="81"/>
+      <c r="E189" s="81"/>
+      <c r="F189" s="87"/>
+      <c r="G189" s="81"/>
+      <c r="H189" s="81"/>
+      <c r="I189" s="81"/>
+      <c r="J189" s="81"/>
+      <c r="K189" s="81"/>
+      <c r="L189" s="76" t="s">
         <v>98</v>
       </c>
       <c r="M189" s="13">
@@ -10832,41 +11134,41 @@
       </c>
     </row>
     <row r="190" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B190" s="81"/>
-      <c r="C190" s="81"/>
-      <c r="D190" s="78"/>
-      <c r="E190" s="78"/>
-      <c r="F190" s="84"/>
-      <c r="G190" s="78"/>
-      <c r="H190" s="78"/>
-      <c r="I190" s="78"/>
-      <c r="J190" s="78"/>
-      <c r="K190" s="78"/>
-      <c r="L190" s="74"/>
+      <c r="B190" s="84"/>
+      <c r="C190" s="84"/>
+      <c r="D190" s="81"/>
+      <c r="E190" s="81"/>
+      <c r="F190" s="87"/>
+      <c r="G190" s="81"/>
+      <c r="H190" s="81"/>
+      <c r="I190" s="81"/>
+      <c r="J190" s="81"/>
+      <c r="K190" s="81"/>
+      <c r="L190" s="77"/>
       <c r="M190" s="12">
         <v>2</v>
       </c>
       <c r="N190" s="19" t="str">
         <f>IF(CASTRO!E15="","",CASTRO!E15)</f>
-        <v/>
-      </c>
-      <c r="O190" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O190" s="66">
         <f>IF(N190="","",CASTRO!F15)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B191" s="81"/>
-      <c r="C191" s="81"/>
-      <c r="D191" s="78"/>
-      <c r="E191" s="78"/>
-      <c r="F191" s="84"/>
-      <c r="G191" s="78"/>
-      <c r="H191" s="78"/>
-      <c r="I191" s="78"/>
-      <c r="J191" s="78"/>
-      <c r="K191" s="78"/>
-      <c r="L191" s="74"/>
+      <c r="B191" s="84"/>
+      <c r="C191" s="84"/>
+      <c r="D191" s="81"/>
+      <c r="E191" s="81"/>
+      <c r="F191" s="87"/>
+      <c r="G191" s="81"/>
+      <c r="H191" s="81"/>
+      <c r="I191" s="81"/>
+      <c r="J191" s="81"/>
+      <c r="K191" s="81"/>
+      <c r="L191" s="77"/>
       <c r="M191" s="12">
         <v>3</v>
       </c>
@@ -10880,17 +11182,17 @@
       </c>
     </row>
     <row r="192" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B192" s="81"/>
-      <c r="C192" s="81"/>
-      <c r="D192" s="78"/>
-      <c r="E192" s="78"/>
-      <c r="F192" s="84"/>
-      <c r="G192" s="78"/>
-      <c r="H192" s="78"/>
-      <c r="I192" s="78"/>
-      <c r="J192" s="78"/>
-      <c r="K192" s="78"/>
-      <c r="L192" s="74"/>
+      <c r="B192" s="84"/>
+      <c r="C192" s="84"/>
+      <c r="D192" s="81"/>
+      <c r="E192" s="81"/>
+      <c r="F192" s="87"/>
+      <c r="G192" s="81"/>
+      <c r="H192" s="81"/>
+      <c r="I192" s="81"/>
+      <c r="J192" s="81"/>
+      <c r="K192" s="81"/>
+      <c r="L192" s="77"/>
       <c r="M192" s="12">
         <v>4</v>
       </c>
@@ -10904,17 +11206,17 @@
       </c>
     </row>
     <row r="193" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B193" s="81"/>
-      <c r="C193" s="81"/>
-      <c r="D193" s="78"/>
-      <c r="E193" s="78"/>
-      <c r="F193" s="84"/>
-      <c r="G193" s="78"/>
-      <c r="H193" s="78"/>
-      <c r="I193" s="78"/>
-      <c r="J193" s="78"/>
-      <c r="K193" s="78"/>
-      <c r="L193" s="74"/>
+      <c r="B193" s="84"/>
+      <c r="C193" s="84"/>
+      <c r="D193" s="81"/>
+      <c r="E193" s="81"/>
+      <c r="F193" s="87"/>
+      <c r="G193" s="81"/>
+      <c r="H193" s="81"/>
+      <c r="I193" s="81"/>
+      <c r="J193" s="81"/>
+      <c r="K193" s="81"/>
+      <c r="L193" s="77"/>
       <c r="M193" s="12">
         <v>5</v>
       </c>
@@ -10923,22 +11225,22 @@
         <v/>
       </c>
       <c r="O193" s="65" t="str">
-        <f>IF(N193="","Día de mes siguiente",CASTRO!F36)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N193="","",CASTRO!F36)</f>
+        <v/>
       </c>
     </row>
     <row r="194" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B194" s="81"/>
-      <c r="C194" s="81"/>
-      <c r="D194" s="78"/>
-      <c r="E194" s="78"/>
-      <c r="F194" s="84"/>
-      <c r="G194" s="78"/>
-      <c r="H194" s="78"/>
-      <c r="I194" s="78"/>
-      <c r="J194" s="78"/>
-      <c r="K194" s="78"/>
-      <c r="L194" s="73" t="s">
+      <c r="B194" s="84"/>
+      <c r="C194" s="84"/>
+      <c r="D194" s="81"/>
+      <c r="E194" s="81"/>
+      <c r="F194" s="87"/>
+      <c r="G194" s="81"/>
+      <c r="H194" s="81"/>
+      <c r="I194" s="81"/>
+      <c r="J194" s="81"/>
+      <c r="K194" s="81"/>
+      <c r="L194" s="76" t="s">
         <v>99</v>
       </c>
       <c r="M194" s="13">
@@ -10954,41 +11256,41 @@
       </c>
     </row>
     <row r="195" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B195" s="81"/>
-      <c r="C195" s="81"/>
-      <c r="D195" s="78"/>
-      <c r="E195" s="78"/>
-      <c r="F195" s="84"/>
-      <c r="G195" s="78"/>
-      <c r="H195" s="78"/>
-      <c r="I195" s="78"/>
-      <c r="J195" s="78"/>
-      <c r="K195" s="78"/>
-      <c r="L195" s="74"/>
+      <c r="B195" s="84"/>
+      <c r="C195" s="84"/>
+      <c r="D195" s="81"/>
+      <c r="E195" s="81"/>
+      <c r="F195" s="87"/>
+      <c r="G195" s="81"/>
+      <c r="H195" s="81"/>
+      <c r="I195" s="81"/>
+      <c r="J195" s="81"/>
+      <c r="K195" s="81"/>
+      <c r="L195" s="77"/>
       <c r="M195" s="12">
         <v>2</v>
       </c>
       <c r="N195" s="19" t="str">
         <f>IF(CASTRO!E16="","",CASTRO!E16)</f>
-        <v/>
-      </c>
-      <c r="O195" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O195" s="66">
         <f>IF(N195="","",CASTRO!F16)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B196" s="81"/>
-      <c r="C196" s="81"/>
-      <c r="D196" s="78"/>
-      <c r="E196" s="78"/>
-      <c r="F196" s="84"/>
-      <c r="G196" s="78"/>
-      <c r="H196" s="78"/>
-      <c r="I196" s="78"/>
-      <c r="J196" s="78"/>
-      <c r="K196" s="78"/>
-      <c r="L196" s="74"/>
+      <c r="B196" s="84"/>
+      <c r="C196" s="84"/>
+      <c r="D196" s="81"/>
+      <c r="E196" s="81"/>
+      <c r="F196" s="87"/>
+      <c r="G196" s="81"/>
+      <c r="H196" s="81"/>
+      <c r="I196" s="81"/>
+      <c r="J196" s="81"/>
+      <c r="K196" s="81"/>
+      <c r="L196" s="77"/>
       <c r="M196" s="12">
         <v>3</v>
       </c>
@@ -11002,17 +11304,17 @@
       </c>
     </row>
     <row r="197" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B197" s="81"/>
-      <c r="C197" s="81"/>
-      <c r="D197" s="78"/>
-      <c r="E197" s="78"/>
-      <c r="F197" s="84"/>
-      <c r="G197" s="78"/>
-      <c r="H197" s="78"/>
-      <c r="I197" s="78"/>
-      <c r="J197" s="78"/>
-      <c r="K197" s="78"/>
-      <c r="L197" s="74"/>
+      <c r="B197" s="84"/>
+      <c r="C197" s="84"/>
+      <c r="D197" s="81"/>
+      <c r="E197" s="81"/>
+      <c r="F197" s="87"/>
+      <c r="G197" s="81"/>
+      <c r="H197" s="81"/>
+      <c r="I197" s="81"/>
+      <c r="J197" s="81"/>
+      <c r="K197" s="81"/>
+      <c r="L197" s="77"/>
       <c r="M197" s="12">
         <v>4</v>
       </c>
@@ -11026,17 +11328,17 @@
       </c>
     </row>
     <row r="198" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B198" s="81"/>
-      <c r="C198" s="81"/>
-      <c r="D198" s="78"/>
-      <c r="E198" s="78"/>
-      <c r="F198" s="84"/>
-      <c r="G198" s="78"/>
-      <c r="H198" s="78"/>
-      <c r="I198" s="78"/>
-      <c r="J198" s="78"/>
-      <c r="K198" s="78"/>
-      <c r="L198" s="74"/>
+      <c r="B198" s="84"/>
+      <c r="C198" s="84"/>
+      <c r="D198" s="81"/>
+      <c r="E198" s="81"/>
+      <c r="F198" s="87"/>
+      <c r="G198" s="81"/>
+      <c r="H198" s="81"/>
+      <c r="I198" s="81"/>
+      <c r="J198" s="81"/>
+      <c r="K198" s="81"/>
+      <c r="L198" s="77"/>
       <c r="M198" s="12">
         <v>5</v>
       </c>
@@ -11045,22 +11347,22 @@
         <v/>
       </c>
       <c r="O198" s="65" t="str">
-        <f>IF(N198="","Día de mes siguiente",CASTRO!F37)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N198="","",CASTRO!F37)</f>
+        <v/>
       </c>
     </row>
     <row r="199" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B199" s="81"/>
-      <c r="C199" s="81"/>
-      <c r="D199" s="78"/>
-      <c r="E199" s="78"/>
-      <c r="F199" s="84"/>
-      <c r="G199" s="78"/>
-      <c r="H199" s="78"/>
-      <c r="I199" s="78"/>
-      <c r="J199" s="78"/>
-      <c r="K199" s="78"/>
-      <c r="L199" s="73" t="s">
+      <c r="B199" s="84"/>
+      <c r="C199" s="84"/>
+      <c r="D199" s="81"/>
+      <c r="E199" s="81"/>
+      <c r="F199" s="87"/>
+      <c r="G199" s="81"/>
+      <c r="H199" s="81"/>
+      <c r="I199" s="81"/>
+      <c r="J199" s="81"/>
+      <c r="K199" s="81"/>
+      <c r="L199" s="76" t="s">
         <v>100</v>
       </c>
       <c r="M199" s="13">
@@ -11076,41 +11378,41 @@
       </c>
     </row>
     <row r="200" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B200" s="81"/>
-      <c r="C200" s="81"/>
-      <c r="D200" s="78"/>
-      <c r="E200" s="78"/>
-      <c r="F200" s="84"/>
-      <c r="G200" s="78"/>
-      <c r="H200" s="78"/>
-      <c r="I200" s="78"/>
-      <c r="J200" s="78"/>
-      <c r="K200" s="78"/>
-      <c r="L200" s="74"/>
+      <c r="B200" s="84"/>
+      <c r="C200" s="84"/>
+      <c r="D200" s="81"/>
+      <c r="E200" s="81"/>
+      <c r="F200" s="87"/>
+      <c r="G200" s="81"/>
+      <c r="H200" s="81"/>
+      <c r="I200" s="81"/>
+      <c r="J200" s="81"/>
+      <c r="K200" s="81"/>
+      <c r="L200" s="77"/>
       <c r="M200" s="12">
         <v>2</v>
       </c>
       <c r="N200" s="19" t="str">
         <f>IF(CASTRO!E17="","",CASTRO!E17)</f>
-        <v/>
-      </c>
-      <c r="O200" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O200" s="66">
         <f>IF(N200="","",CASTRO!F17)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B201" s="81"/>
-      <c r="C201" s="81"/>
-      <c r="D201" s="78"/>
-      <c r="E201" s="78"/>
-      <c r="F201" s="84"/>
-      <c r="G201" s="78"/>
-      <c r="H201" s="78"/>
-      <c r="I201" s="78"/>
-      <c r="J201" s="78"/>
-      <c r="K201" s="78"/>
-      <c r="L201" s="74"/>
+      <c r="B201" s="84"/>
+      <c r="C201" s="84"/>
+      <c r="D201" s="81"/>
+      <c r="E201" s="81"/>
+      <c r="F201" s="87"/>
+      <c r="G201" s="81"/>
+      <c r="H201" s="81"/>
+      <c r="I201" s="81"/>
+      <c r="J201" s="81"/>
+      <c r="K201" s="81"/>
+      <c r="L201" s="77"/>
       <c r="M201" s="12">
         <v>3</v>
       </c>
@@ -11124,17 +11426,17 @@
       </c>
     </row>
     <row r="202" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B202" s="81"/>
-      <c r="C202" s="81"/>
-      <c r="D202" s="78"/>
-      <c r="E202" s="78"/>
-      <c r="F202" s="84"/>
-      <c r="G202" s="78"/>
-      <c r="H202" s="78"/>
-      <c r="I202" s="78"/>
-      <c r="J202" s="78"/>
-      <c r="K202" s="78"/>
-      <c r="L202" s="74"/>
+      <c r="B202" s="84"/>
+      <c r="C202" s="84"/>
+      <c r="D202" s="81"/>
+      <c r="E202" s="81"/>
+      <c r="F202" s="87"/>
+      <c r="G202" s="81"/>
+      <c r="H202" s="81"/>
+      <c r="I202" s="81"/>
+      <c r="J202" s="81"/>
+      <c r="K202" s="81"/>
+      <c r="L202" s="77"/>
       <c r="M202" s="12">
         <v>4</v>
       </c>
@@ -11148,17 +11450,17 @@
       </c>
     </row>
     <row r="203" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B203" s="81"/>
-      <c r="C203" s="81"/>
-      <c r="D203" s="78"/>
-      <c r="E203" s="78"/>
-      <c r="F203" s="84"/>
-      <c r="G203" s="78"/>
-      <c r="H203" s="78"/>
-      <c r="I203" s="78"/>
-      <c r="J203" s="78"/>
-      <c r="K203" s="78"/>
-      <c r="L203" s="74"/>
+      <c r="B203" s="84"/>
+      <c r="C203" s="84"/>
+      <c r="D203" s="81"/>
+      <c r="E203" s="81"/>
+      <c r="F203" s="87"/>
+      <c r="G203" s="81"/>
+      <c r="H203" s="81"/>
+      <c r="I203" s="81"/>
+      <c r="J203" s="81"/>
+      <c r="K203" s="81"/>
+      <c r="L203" s="77"/>
       <c r="M203" s="12">
         <v>5</v>
       </c>
@@ -11167,22 +11469,22 @@
         <v/>
       </c>
       <c r="O203" s="65" t="str">
-        <f>IF(N203="","Día de mes siguiente",CASTRO!F38)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N203="","",CASTRO!F38)</f>
+        <v/>
       </c>
     </row>
     <row r="204" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B204" s="81"/>
-      <c r="C204" s="81"/>
-      <c r="D204" s="78"/>
-      <c r="E204" s="78"/>
-      <c r="F204" s="84"/>
-      <c r="G204" s="78"/>
-      <c r="H204" s="78"/>
-      <c r="I204" s="78"/>
-      <c r="J204" s="78"/>
-      <c r="K204" s="78"/>
-      <c r="L204" s="73" t="s">
+      <c r="B204" s="84"/>
+      <c r="C204" s="84"/>
+      <c r="D204" s="81"/>
+      <c r="E204" s="81"/>
+      <c r="F204" s="87"/>
+      <c r="G204" s="81"/>
+      <c r="H204" s="81"/>
+      <c r="I204" s="81"/>
+      <c r="J204" s="81"/>
+      <c r="K204" s="81"/>
+      <c r="L204" s="76" t="s">
         <v>79</v>
       </c>
       <c r="M204" s="13">
@@ -11198,41 +11500,41 @@
       </c>
     </row>
     <row r="205" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B205" s="81"/>
-      <c r="C205" s="81"/>
-      <c r="D205" s="78"/>
-      <c r="E205" s="78"/>
-      <c r="F205" s="84"/>
-      <c r="G205" s="78"/>
-      <c r="H205" s="78"/>
-      <c r="I205" s="78"/>
-      <c r="J205" s="78"/>
-      <c r="K205" s="78"/>
-      <c r="L205" s="74"/>
+      <c r="B205" s="84"/>
+      <c r="C205" s="84"/>
+      <c r="D205" s="81"/>
+      <c r="E205" s="81"/>
+      <c r="F205" s="87"/>
+      <c r="G205" s="81"/>
+      <c r="H205" s="81"/>
+      <c r="I205" s="81"/>
+      <c r="J205" s="81"/>
+      <c r="K205" s="81"/>
+      <c r="L205" s="77"/>
       <c r="M205" s="12">
         <v>2</v>
       </c>
       <c r="N205" s="19" t="str">
         <f>IF(CASTRO!E18="","",CASTRO!E18)</f>
-        <v/>
-      </c>
-      <c r="O205" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O205" s="66">
         <f>IF(N205="","",CASTRO!F18)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B206" s="81"/>
-      <c r="C206" s="81"/>
-      <c r="D206" s="78"/>
-      <c r="E206" s="78"/>
-      <c r="F206" s="84"/>
-      <c r="G206" s="78"/>
-      <c r="H206" s="78"/>
-      <c r="I206" s="78"/>
-      <c r="J206" s="78"/>
-      <c r="K206" s="78"/>
-      <c r="L206" s="74"/>
+      <c r="B206" s="84"/>
+      <c r="C206" s="84"/>
+      <c r="D206" s="81"/>
+      <c r="E206" s="81"/>
+      <c r="F206" s="87"/>
+      <c r="G206" s="81"/>
+      <c r="H206" s="81"/>
+      <c r="I206" s="81"/>
+      <c r="J206" s="81"/>
+      <c r="K206" s="81"/>
+      <c r="L206" s="77"/>
       <c r="M206" s="12">
         <v>3</v>
       </c>
@@ -11246,17 +11548,17 @@
       </c>
     </row>
     <row r="207" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B207" s="81"/>
-      <c r="C207" s="81"/>
-      <c r="D207" s="78"/>
-      <c r="E207" s="78"/>
-      <c r="F207" s="84"/>
-      <c r="G207" s="78"/>
-      <c r="H207" s="78"/>
-      <c r="I207" s="78"/>
-      <c r="J207" s="78"/>
-      <c r="K207" s="78"/>
-      <c r="L207" s="74"/>
+      <c r="B207" s="84"/>
+      <c r="C207" s="84"/>
+      <c r="D207" s="81"/>
+      <c r="E207" s="81"/>
+      <c r="F207" s="87"/>
+      <c r="G207" s="81"/>
+      <c r="H207" s="81"/>
+      <c r="I207" s="81"/>
+      <c r="J207" s="81"/>
+      <c r="K207" s="81"/>
+      <c r="L207" s="77"/>
       <c r="M207" s="12">
         <v>4</v>
       </c>
@@ -11270,17 +11572,17 @@
       </c>
     </row>
     <row r="208" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B208" s="81"/>
-      <c r="C208" s="81"/>
-      <c r="D208" s="78"/>
-      <c r="E208" s="78"/>
-      <c r="F208" s="84"/>
-      <c r="G208" s="78"/>
-      <c r="H208" s="78"/>
-      <c r="I208" s="78"/>
-      <c r="J208" s="78"/>
-      <c r="K208" s="78"/>
-      <c r="L208" s="74"/>
+      <c r="B208" s="84"/>
+      <c r="C208" s="84"/>
+      <c r="D208" s="81"/>
+      <c r="E208" s="81"/>
+      <c r="F208" s="87"/>
+      <c r="G208" s="81"/>
+      <c r="H208" s="81"/>
+      <c r="I208" s="81"/>
+      <c r="J208" s="81"/>
+      <c r="K208" s="81"/>
+      <c r="L208" s="77"/>
       <c r="M208" s="12">
         <v>5</v>
       </c>
@@ -11289,22 +11591,22 @@
         <v/>
       </c>
       <c r="O208" s="65" t="str">
-        <f>IF(N208="","Día de mes siguiente",CASTRO!F39)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N208="","",CASTRO!F39)</f>
+        <v/>
       </c>
     </row>
     <row r="209" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B209" s="81"/>
-      <c r="C209" s="81"/>
-      <c r="D209" s="78"/>
-      <c r="E209" s="78"/>
-      <c r="F209" s="84"/>
-      <c r="G209" s="78"/>
-      <c r="H209" s="78"/>
-      <c r="I209" s="78"/>
-      <c r="J209" s="78"/>
-      <c r="K209" s="78"/>
-      <c r="L209" s="73" t="s">
+      <c r="B209" s="84"/>
+      <c r="C209" s="84"/>
+      <c r="D209" s="81"/>
+      <c r="E209" s="81"/>
+      <c r="F209" s="87"/>
+      <c r="G209" s="81"/>
+      <c r="H209" s="81"/>
+      <c r="I209" s="81"/>
+      <c r="J209" s="81"/>
+      <c r="K209" s="81"/>
+      <c r="L209" s="76" t="s">
         <v>101</v>
       </c>
       <c r="M209" s="13">
@@ -11320,65 +11622,65 @@
       </c>
     </row>
     <row r="210" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B210" s="81"/>
-      <c r="C210" s="81"/>
-      <c r="D210" s="78"/>
-      <c r="E210" s="78"/>
-      <c r="F210" s="84"/>
-      <c r="G210" s="78"/>
-      <c r="H210" s="78"/>
-      <c r="I210" s="78"/>
-      <c r="J210" s="78"/>
-      <c r="K210" s="78"/>
-      <c r="L210" s="74"/>
+      <c r="B210" s="84"/>
+      <c r="C210" s="84"/>
+      <c r="D210" s="81"/>
+      <c r="E210" s="81"/>
+      <c r="F210" s="87"/>
+      <c r="G210" s="81"/>
+      <c r="H210" s="81"/>
+      <c r="I210" s="81"/>
+      <c r="J210" s="81"/>
+      <c r="K210" s="81"/>
+      <c r="L210" s="77"/>
       <c r="M210" s="12">
         <v>2</v>
       </c>
       <c r="N210" s="19" t="str">
         <f>IF(CASTRO!E19="","",CASTRO!E19)</f>
-        <v/>
-      </c>
-      <c r="O210" s="66" t="str">
+        <v>Ex.Final</v>
+      </c>
+      <c r="O210" s="66">
         <f>IF(N210="","",CASTRO!F19)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B211" s="81"/>
-      <c r="C211" s="81"/>
-      <c r="D211" s="78"/>
-      <c r="E211" s="78"/>
-      <c r="F211" s="84"/>
-      <c r="G211" s="78"/>
-      <c r="H211" s="78"/>
-      <c r="I211" s="78"/>
-      <c r="J211" s="78"/>
-      <c r="K211" s="78"/>
-      <c r="L211" s="74"/>
+      <c r="B211" s="84"/>
+      <c r="C211" s="84"/>
+      <c r="D211" s="81"/>
+      <c r="E211" s="81"/>
+      <c r="F211" s="87"/>
+      <c r="G211" s="81"/>
+      <c r="H211" s="81"/>
+      <c r="I211" s="81"/>
+      <c r="J211" s="81"/>
+      <c r="K211" s="81"/>
+      <c r="L211" s="77"/>
       <c r="M211" s="12">
         <v>3</v>
       </c>
       <c r="N211" s="19" t="str">
         <f>IF(CASTRO!E26="","",CASTRO!E26)</f>
-        <v/>
-      </c>
-      <c r="O211" s="65" t="str">
+        <v>Ex.Sup.</v>
+      </c>
+      <c r="O211" s="65">
         <f>IF(N211="","",CASTRO!F26)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B212" s="81"/>
-      <c r="C212" s="81"/>
-      <c r="D212" s="78"/>
-      <c r="E212" s="78"/>
-      <c r="F212" s="84"/>
-      <c r="G212" s="78"/>
-      <c r="H212" s="78"/>
-      <c r="I212" s="78"/>
-      <c r="J212" s="78"/>
-      <c r="K212" s="78"/>
-      <c r="L212" s="74"/>
+      <c r="B212" s="84"/>
+      <c r="C212" s="84"/>
+      <c r="D212" s="81"/>
+      <c r="E212" s="81"/>
+      <c r="F212" s="87"/>
+      <c r="G212" s="81"/>
+      <c r="H212" s="81"/>
+      <c r="I212" s="81"/>
+      <c r="J212" s="81"/>
+      <c r="K212" s="81"/>
+      <c r="L212" s="77"/>
       <c r="M212" s="12">
         <v>4</v>
       </c>
@@ -11392,17 +11694,17 @@
       </c>
     </row>
     <row r="213" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B213" s="82"/>
-      <c r="C213" s="82"/>
-      <c r="D213" s="79"/>
-      <c r="E213" s="79"/>
-      <c r="F213" s="85"/>
-      <c r="G213" s="79"/>
-      <c r="H213" s="79"/>
-      <c r="I213" s="79"/>
-      <c r="J213" s="79"/>
-      <c r="K213" s="79"/>
-      <c r="L213" s="74"/>
+      <c r="B213" s="85"/>
+      <c r="C213" s="85"/>
+      <c r="D213" s="82"/>
+      <c r="E213" s="82"/>
+      <c r="F213" s="88"/>
+      <c r="G213" s="82"/>
+      <c r="H213" s="82"/>
+      <c r="I213" s="82"/>
+      <c r="J213" s="82"/>
+      <c r="K213" s="82"/>
+      <c r="L213" s="77"/>
       <c r="M213" s="12">
         <v>5</v>
       </c>
@@ -11411,8 +11713,8 @@
         <v/>
       </c>
       <c r="O213" s="65" t="str">
-        <f>IF(N213="","Día de mes siguiente",CASTRO!F40)</f>
-        <v>Día de mes siguiente</v>
+        <f>IF(N213="","",CASTRO!F40)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
